--- a/Design/밸런스 문서/경제 밸런스/1. 재화 지급 관리.xlsx
+++ b/Design/밸런스 문서/경제 밸런스/1. 재화 지급 관리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\경제\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\밸런스 문서\경제 밸런스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB92F0E7-9889-4715-859E-B4B2349D77C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D106C74C-21AF-4057-AD44-4550B07B2052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1414E414-9EEA-4017-AF89-0F410650887C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1414E414-9EEA-4017-AF89-0F410650887C}"/>
   </bookViews>
   <sheets>
     <sheet name="재화 종류 별 지급량" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -380,17 +380,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,8 +395,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3371,10 +3371,10 @@
   <dimension ref="A1:AF112"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="H81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C108" sqref="C108"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13384,27 +13384,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A82125E-2EBF-4413-8D57-72233A933F08}">
   <dimension ref="D1:V505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="3.125" customWidth="1"/>
-    <col min="4" max="4" width="2.875" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="19" width="12.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="23">
@@ -13448,37 +13448,37 @@
       </c>
     </row>
     <row r="2" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24" t="s">
+      <c r="O2" s="29"/>
+      <c r="P2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24" t="s">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="24"/>
+      <c r="S2" s="29"/>
     </row>
     <row r="3" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="25"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="23">
         <v>101</v>
       </c>
@@ -13520,9 +13520,9 @@
       </c>
     </row>
     <row r="4" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="25"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="23" t="s">
         <v>1</v>
       </c>
@@ -13573,10 +13573,10 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="30">
-        <v>1</v>
-      </c>
-      <c r="F5" s="27">
+      <c r="E5" s="26">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25">
         <v>1</v>
       </c>
       <c r="G5">
@@ -13668,10 +13668,10 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="30">
-        <v>1</v>
-      </c>
-      <c r="F6" s="27">
+      <c r="E6" s="26">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25">
         <v>2</v>
       </c>
       <c r="G6">
@@ -13763,10 +13763,10 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="30">
-        <v>1</v>
-      </c>
-      <c r="F7" s="27">
+      <c r="E7" s="26">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25">
         <v>3</v>
       </c>
       <c r="G7">
@@ -13858,10 +13858,10 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="30">
-        <v>1</v>
-      </c>
-      <c r="F8" s="27">
+      <c r="E8" s="26">
+        <v>1</v>
+      </c>
+      <c r="F8" s="25">
         <v>4</v>
       </c>
       <c r="G8">
@@ -13953,10 +13953,10 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="30">
-        <v>1</v>
-      </c>
-      <c r="F9" s="27">
+      <c r="E9" s="26">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25">
         <v>5</v>
       </c>
       <c r="G9">
@@ -14049,10 +14049,10 @@
         <f>D5+1</f>
         <v>2</v>
       </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="27">
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25">
         <v>6</v>
       </c>
       <c r="G10">
@@ -14133,7 +14133,7 @@
 *$E10,0)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="24" t="s">
         <v>23</v>
       </c>
       <c r="V10" s="20">
@@ -14146,10 +14146,10 @@
         <f t="shared" ref="D11:D74" si="0">D6+1</f>
         <v>2</v>
       </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="F11" s="27">
+      <c r="E11" s="26">
+        <v>1</v>
+      </c>
+      <c r="F11" s="25">
         <v>7</v>
       </c>
       <c r="G11">
@@ -14236,10 +14236,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E12" s="30">
-        <v>1</v>
-      </c>
-      <c r="F12" s="27">
+      <c r="E12" s="26">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25">
         <v>8</v>
       </c>
       <c r="G12">
@@ -14326,10 +14326,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E13" s="30">
-        <v>1</v>
-      </c>
-      <c r="F13" s="27">
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25">
         <v>9</v>
       </c>
       <c r="G13">
@@ -14416,10 +14416,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E14" s="30">
-        <v>1</v>
-      </c>
-      <c r="F14" s="27">
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25">
         <v>10</v>
       </c>
       <c r="G14">
@@ -14506,10 +14506,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E15" s="30">
-        <v>1</v>
-      </c>
-      <c r="F15" s="27">
+      <c r="E15" s="26">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25">
         <v>11</v>
       </c>
       <c r="G15">
@@ -14596,10 +14596,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E16" s="30">
-        <v>1</v>
-      </c>
-      <c r="F16" s="27">
+      <c r="E16" s="26">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25">
         <v>12</v>
       </c>
       <c r="G16">
@@ -14686,10 +14686,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E17" s="30">
-        <v>1</v>
-      </c>
-      <c r="F17" s="27">
+      <c r="E17" s="26">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25">
         <v>13</v>
       </c>
       <c r="G17">
@@ -14776,10 +14776,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E18" s="30">
-        <v>1</v>
-      </c>
-      <c r="F18" s="27">
+      <c r="E18" s="26">
+        <v>1</v>
+      </c>
+      <c r="F18" s="25">
         <v>14</v>
       </c>
       <c r="G18">
@@ -14866,10 +14866,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E19" s="30">
-        <v>1</v>
-      </c>
-      <c r="F19" s="27">
+      <c r="E19" s="26">
+        <v>1</v>
+      </c>
+      <c r="F19" s="25">
         <v>15</v>
       </c>
       <c r="G19">
@@ -14956,10 +14956,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E20" s="30">
-        <v>1</v>
-      </c>
-      <c r="F20" s="27">
+      <c r="E20" s="26">
+        <v>1</v>
+      </c>
+      <c r="F20" s="25">
         <v>16</v>
       </c>
       <c r="G20">
@@ -15046,10 +15046,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E21" s="30">
-        <v>1</v>
-      </c>
-      <c r="F21" s="27">
+      <c r="E21" s="26">
+        <v>1</v>
+      </c>
+      <c r="F21" s="25">
         <v>17</v>
       </c>
       <c r="G21">
@@ -15136,10 +15136,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E22" s="30">
-        <v>1</v>
-      </c>
-      <c r="F22" s="27">
+      <c r="E22" s="26">
+        <v>1</v>
+      </c>
+      <c r="F22" s="25">
         <v>18</v>
       </c>
       <c r="G22">
@@ -15226,10 +15226,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E23" s="30">
-        <v>1</v>
-      </c>
-      <c r="F23" s="27">
+      <c r="E23" s="26">
+        <v>1</v>
+      </c>
+      <c r="F23" s="25">
         <v>19</v>
       </c>
       <c r="G23">
@@ -15316,10 +15316,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E24" s="30">
-        <v>1</v>
-      </c>
-      <c r="F24" s="27">
+      <c r="E24" s="26">
+        <v>1</v>
+      </c>
+      <c r="F24" s="25">
         <v>20</v>
       </c>
       <c r="G24">
@@ -15406,10 +15406,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E25" s="30">
-        <v>1</v>
-      </c>
-      <c r="F25" s="27">
+      <c r="E25" s="26">
+        <v>1</v>
+      </c>
+      <c r="F25" s="25">
         <v>21</v>
       </c>
       <c r="G25">
@@ -15496,10 +15496,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E26" s="30">
-        <v>1</v>
-      </c>
-      <c r="F26" s="27">
+      <c r="E26" s="26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="25">
         <v>22</v>
       </c>
       <c r="G26">
@@ -15586,10 +15586,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E27" s="30">
-        <v>1</v>
-      </c>
-      <c r="F27" s="27">
+      <c r="E27" s="26">
+        <v>1</v>
+      </c>
+      <c r="F27" s="25">
         <v>23</v>
       </c>
       <c r="G27">
@@ -15676,10 +15676,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E28" s="30">
-        <v>1</v>
-      </c>
-      <c r="F28" s="27">
+      <c r="E28" s="26">
+        <v>1</v>
+      </c>
+      <c r="F28" s="25">
         <v>24</v>
       </c>
       <c r="G28">
@@ -15766,10 +15766,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E29" s="30">
-        <v>1</v>
-      </c>
-      <c r="F29" s="27">
+      <c r="E29" s="26">
+        <v>1</v>
+      </c>
+      <c r="F29" s="25">
         <v>25</v>
       </c>
       <c r="G29">
@@ -15856,10 +15856,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E30" s="30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="27">
+      <c r="E30" s="26">
+        <v>1</v>
+      </c>
+      <c r="F30" s="25">
         <v>26</v>
       </c>
       <c r="G30">
@@ -15946,10 +15946,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E31" s="30">
-        <v>1</v>
-      </c>
-      <c r="F31" s="27">
+      <c r="E31" s="26">
+        <v>1</v>
+      </c>
+      <c r="F31" s="25">
         <v>27</v>
       </c>
       <c r="G31">
@@ -16036,10 +16036,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E32" s="30">
-        <v>1</v>
-      </c>
-      <c r="F32" s="27">
+      <c r="E32" s="26">
+        <v>1</v>
+      </c>
+      <c r="F32" s="25">
         <v>28</v>
       </c>
       <c r="G32">
@@ -16126,10 +16126,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E33" s="30">
-        <v>1</v>
-      </c>
-      <c r="F33" s="27">
+      <c r="E33" s="26">
+        <v>1</v>
+      </c>
+      <c r="F33" s="25">
         <v>29</v>
       </c>
       <c r="G33">
@@ -16216,10 +16216,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E34" s="30">
-        <v>1</v>
-      </c>
-      <c r="F34" s="27">
+      <c r="E34" s="26">
+        <v>1</v>
+      </c>
+      <c r="F34" s="25">
         <v>30</v>
       </c>
       <c r="G34">
@@ -16306,10 +16306,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E35" s="30">
-        <v>1</v>
-      </c>
-      <c r="F35" s="27">
+      <c r="E35" s="26">
+        <v>1</v>
+      </c>
+      <c r="F35" s="25">
         <v>31</v>
       </c>
       <c r="G35">
@@ -16396,10 +16396,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E36" s="30">
-        <v>1</v>
-      </c>
-      <c r="F36" s="27">
+      <c r="E36" s="26">
+        <v>1</v>
+      </c>
+      <c r="F36" s="25">
         <v>32</v>
       </c>
       <c r="G36">
@@ -16486,10 +16486,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E37" s="30">
-        <v>1</v>
-      </c>
-      <c r="F37" s="27">
+      <c r="E37" s="26">
+        <v>1</v>
+      </c>
+      <c r="F37" s="25">
         <v>33</v>
       </c>
       <c r="G37">
@@ -16576,10 +16576,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E38" s="30">
-        <v>1</v>
-      </c>
-      <c r="F38" s="27">
+      <c r="E38" s="26">
+        <v>1</v>
+      </c>
+      <c r="F38" s="25">
         <v>34</v>
       </c>
       <c r="G38">
@@ -16666,10 +16666,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E39" s="30">
-        <v>1</v>
-      </c>
-      <c r="F39" s="27">
+      <c r="E39" s="26">
+        <v>1</v>
+      </c>
+      <c r="F39" s="25">
         <v>35</v>
       </c>
       <c r="G39">
@@ -16756,10 +16756,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E40" s="30">
-        <v>1</v>
-      </c>
-      <c r="F40" s="27">
+      <c r="E40" s="26">
+        <v>1</v>
+      </c>
+      <c r="F40" s="25">
         <v>36</v>
       </c>
       <c r="G40">
@@ -16846,10 +16846,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E41" s="30">
-        <v>1</v>
-      </c>
-      <c r="F41" s="27">
+      <c r="E41" s="26">
+        <v>1</v>
+      </c>
+      <c r="F41" s="25">
         <v>37</v>
       </c>
       <c r="G41">
@@ -16936,10 +16936,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E42" s="30">
-        <v>1</v>
-      </c>
-      <c r="F42" s="27">
+      <c r="E42" s="26">
+        <v>1</v>
+      </c>
+      <c r="F42" s="25">
         <v>38</v>
       </c>
       <c r="G42">
@@ -17026,10 +17026,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E43" s="30">
-        <v>1</v>
-      </c>
-      <c r="F43" s="27">
+      <c r="E43" s="26">
+        <v>1</v>
+      </c>
+      <c r="F43" s="25">
         <v>39</v>
       </c>
       <c r="G43">
@@ -17116,10 +17116,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E44" s="30">
-        <v>1</v>
-      </c>
-      <c r="F44" s="27">
+      <c r="E44" s="26">
+        <v>1</v>
+      </c>
+      <c r="F44" s="25">
         <v>40</v>
       </c>
       <c r="G44">
@@ -17206,10 +17206,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E45" s="30">
-        <v>1</v>
-      </c>
-      <c r="F45" s="27">
+      <c r="E45" s="26">
+        <v>1</v>
+      </c>
+      <c r="F45" s="25">
         <v>41</v>
       </c>
       <c r="G45">
@@ -17296,10 +17296,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E46" s="30">
-        <v>1</v>
-      </c>
-      <c r="F46" s="27">
+      <c r="E46" s="26">
+        <v>1</v>
+      </c>
+      <c r="F46" s="25">
         <v>42</v>
       </c>
       <c r="G46">
@@ -17386,10 +17386,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E47" s="30">
-        <v>1</v>
-      </c>
-      <c r="F47" s="27">
+      <c r="E47" s="26">
+        <v>1</v>
+      </c>
+      <c r="F47" s="25">
         <v>43</v>
       </c>
       <c r="G47">
@@ -17476,10 +17476,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E48" s="30">
-        <v>1</v>
-      </c>
-      <c r="F48" s="27">
+      <c r="E48" s="26">
+        <v>1</v>
+      </c>
+      <c r="F48" s="25">
         <v>44</v>
       </c>
       <c r="G48">
@@ -17566,10 +17566,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E49" s="30">
-        <v>1</v>
-      </c>
-      <c r="F49" s="27">
+      <c r="E49" s="26">
+        <v>1</v>
+      </c>
+      <c r="F49" s="25">
         <v>45</v>
       </c>
       <c r="G49">
@@ -17656,10 +17656,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E50" s="30">
-        <v>1</v>
-      </c>
-      <c r="F50" s="27">
+      <c r="E50" s="26">
+        <v>1</v>
+      </c>
+      <c r="F50" s="25">
         <v>46</v>
       </c>
       <c r="G50">
@@ -17746,10 +17746,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E51" s="30">
-        <v>1</v>
-      </c>
-      <c r="F51" s="27">
+      <c r="E51" s="26">
+        <v>1</v>
+      </c>
+      <c r="F51" s="25">
         <v>47</v>
       </c>
       <c r="G51">
@@ -17836,10 +17836,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E52" s="30">
-        <v>1</v>
-      </c>
-      <c r="F52" s="27">
+      <c r="E52" s="26">
+        <v>1</v>
+      </c>
+      <c r="F52" s="25">
         <v>48</v>
       </c>
       <c r="G52">
@@ -17926,10 +17926,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E53" s="30">
-        <v>1</v>
-      </c>
-      <c r="F53" s="27">
+      <c r="E53" s="26">
+        <v>1</v>
+      </c>
+      <c r="F53" s="25">
         <v>49</v>
       </c>
       <c r="G53">
@@ -18016,10 +18016,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E54" s="30">
-        <v>1</v>
-      </c>
-      <c r="F54" s="27">
+      <c r="E54" s="26">
+        <v>1</v>
+      </c>
+      <c r="F54" s="25">
         <v>50</v>
       </c>
       <c r="G54">
@@ -18106,10 +18106,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E55" s="30">
-        <v>1</v>
-      </c>
-      <c r="F55" s="27">
+      <c r="E55" s="26">
+        <v>1</v>
+      </c>
+      <c r="F55" s="25">
         <v>51</v>
       </c>
       <c r="G55">
@@ -18196,10 +18196,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E56" s="30">
-        <v>1</v>
-      </c>
-      <c r="F56" s="27">
+      <c r="E56" s="26">
+        <v>1</v>
+      </c>
+      <c r="F56" s="25">
         <v>52</v>
       </c>
       <c r="G56">
@@ -18286,10 +18286,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E57" s="30">
-        <v>1</v>
-      </c>
-      <c r="F57" s="27">
+      <c r="E57" s="26">
+        <v>1</v>
+      </c>
+      <c r="F57" s="25">
         <v>53</v>
       </c>
       <c r="G57">
@@ -18376,10 +18376,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E58" s="30">
-        <v>1</v>
-      </c>
-      <c r="F58" s="27">
+      <c r="E58" s="26">
+        <v>1</v>
+      </c>
+      <c r="F58" s="25">
         <v>54</v>
       </c>
       <c r="G58">
@@ -18466,10 +18466,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E59" s="30">
-        <v>1</v>
-      </c>
-      <c r="F59" s="27">
+      <c r="E59" s="26">
+        <v>1</v>
+      </c>
+      <c r="F59" s="25">
         <v>55</v>
       </c>
       <c r="G59">
@@ -18556,10 +18556,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E60" s="30">
-        <v>1</v>
-      </c>
-      <c r="F60" s="27">
+      <c r="E60" s="26">
+        <v>1</v>
+      </c>
+      <c r="F60" s="25">
         <v>56</v>
       </c>
       <c r="G60">
@@ -18646,10 +18646,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E61" s="30">
-        <v>1</v>
-      </c>
-      <c r="F61" s="27">
+      <c r="E61" s="26">
+        <v>1</v>
+      </c>
+      <c r="F61" s="25">
         <v>57</v>
       </c>
       <c r="G61">
@@ -18736,10 +18736,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E62" s="30">
-        <v>1</v>
-      </c>
-      <c r="F62" s="27">
+      <c r="E62" s="26">
+        <v>1</v>
+      </c>
+      <c r="F62" s="25">
         <v>58</v>
       </c>
       <c r="G62">
@@ -18826,10 +18826,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E63" s="30">
-        <v>1</v>
-      </c>
-      <c r="F63" s="27">
+      <c r="E63" s="26">
+        <v>1</v>
+      </c>
+      <c r="F63" s="25">
         <v>59</v>
       </c>
       <c r="G63">
@@ -18916,10 +18916,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E64" s="30">
-        <v>1</v>
-      </c>
-      <c r="F64" s="27">
+      <c r="E64" s="26">
+        <v>1</v>
+      </c>
+      <c r="F64" s="25">
         <v>60</v>
       </c>
       <c r="G64">
@@ -19006,10 +19006,10 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E65" s="30">
-        <v>1</v>
-      </c>
-      <c r="F65" s="27">
+      <c r="E65" s="26">
+        <v>1</v>
+      </c>
+      <c r="F65" s="25">
         <v>61</v>
       </c>
       <c r="G65">
@@ -19096,10 +19096,10 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E66" s="30">
-        <v>1</v>
-      </c>
-      <c r="F66" s="27">
+      <c r="E66" s="26">
+        <v>1</v>
+      </c>
+      <c r="F66" s="25">
         <v>62</v>
       </c>
       <c r="G66">
@@ -19186,10 +19186,10 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E67" s="30">
-        <v>1</v>
-      </c>
-      <c r="F67" s="27">
+      <c r="E67" s="26">
+        <v>1</v>
+      </c>
+      <c r="F67" s="25">
         <v>63</v>
       </c>
       <c r="G67">
@@ -19276,10 +19276,10 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E68" s="30">
-        <v>1</v>
-      </c>
-      <c r="F68" s="27">
+      <c r="E68" s="26">
+        <v>1</v>
+      </c>
+      <c r="F68" s="25">
         <v>64</v>
       </c>
       <c r="G68">
@@ -19366,10 +19366,10 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E69" s="30">
-        <v>1</v>
-      </c>
-      <c r="F69" s="27">
+      <c r="E69" s="26">
+        <v>1</v>
+      </c>
+      <c r="F69" s="25">
         <v>65</v>
       </c>
       <c r="G69">
@@ -19456,10 +19456,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E70" s="30">
-        <v>1</v>
-      </c>
-      <c r="F70" s="27">
+      <c r="E70" s="26">
+        <v>1</v>
+      </c>
+      <c r="F70" s="25">
         <v>66</v>
       </c>
       <c r="G70">
@@ -19546,10 +19546,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E71" s="30">
-        <v>1</v>
-      </c>
-      <c r="F71" s="27">
+      <c r="E71" s="26">
+        <v>1</v>
+      </c>
+      <c r="F71" s="25">
         <v>67</v>
       </c>
       <c r="G71">
@@ -19636,10 +19636,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E72" s="30">
-        <v>1</v>
-      </c>
-      <c r="F72" s="27">
+      <c r="E72" s="26">
+        <v>1</v>
+      </c>
+      <c r="F72" s="25">
         <v>68</v>
       </c>
       <c r="G72">
@@ -19726,10 +19726,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E73" s="30">
-        <v>1</v>
-      </c>
-      <c r="F73" s="27">
+      <c r="E73" s="26">
+        <v>1</v>
+      </c>
+      <c r="F73" s="25">
         <v>69</v>
       </c>
       <c r="G73">
@@ -19816,10 +19816,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E74" s="30">
-        <v>1</v>
-      </c>
-      <c r="F74" s="27">
+      <c r="E74" s="26">
+        <v>1</v>
+      </c>
+      <c r="F74" s="25">
         <v>70</v>
       </c>
       <c r="G74">
@@ -19906,10 +19906,10 @@
         <f t="shared" ref="D75:D138" si="1">D70+1</f>
         <v>15</v>
       </c>
-      <c r="E75" s="30">
-        <v>1</v>
-      </c>
-      <c r="F75" s="27">
+      <c r="E75" s="26">
+        <v>1</v>
+      </c>
+      <c r="F75" s="25">
         <v>71</v>
       </c>
       <c r="G75">
@@ -19996,10 +19996,10 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E76" s="30">
-        <v>1</v>
-      </c>
-      <c r="F76" s="27">
+      <c r="E76" s="26">
+        <v>1</v>
+      </c>
+      <c r="F76" s="25">
         <v>72</v>
       </c>
       <c r="G76">
@@ -20086,10 +20086,10 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E77" s="30">
-        <v>1</v>
-      </c>
-      <c r="F77" s="27">
+      <c r="E77" s="26">
+        <v>1</v>
+      </c>
+      <c r="F77" s="25">
         <v>73</v>
       </c>
       <c r="G77">
@@ -20176,10 +20176,10 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E78" s="30">
-        <v>1</v>
-      </c>
-      <c r="F78" s="27">
+      <c r="E78" s="26">
+        <v>1</v>
+      </c>
+      <c r="F78" s="25">
         <v>74</v>
       </c>
       <c r="G78">
@@ -20266,10 +20266,10 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E79" s="30">
-        <v>1</v>
-      </c>
-      <c r="F79" s="27">
+      <c r="E79" s="26">
+        <v>1</v>
+      </c>
+      <c r="F79" s="25">
         <v>75</v>
       </c>
       <c r="G79">
@@ -20356,10 +20356,10 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E80" s="30">
-        <v>1</v>
-      </c>
-      <c r="F80" s="27">
+      <c r="E80" s="26">
+        <v>1</v>
+      </c>
+      <c r="F80" s="25">
         <v>76</v>
       </c>
       <c r="G80">
@@ -20446,10 +20446,10 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E81" s="30">
-        <v>1</v>
-      </c>
-      <c r="F81" s="27">
+      <c r="E81" s="26">
+        <v>1</v>
+      </c>
+      <c r="F81" s="25">
         <v>77</v>
       </c>
       <c r="G81">
@@ -20536,10 +20536,10 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E82" s="30">
-        <v>1</v>
-      </c>
-      <c r="F82" s="27">
+      <c r="E82" s="26">
+        <v>1</v>
+      </c>
+      <c r="F82" s="25">
         <v>78</v>
       </c>
       <c r="G82">
@@ -20626,10 +20626,10 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E83" s="30">
-        <v>1</v>
-      </c>
-      <c r="F83" s="27">
+      <c r="E83" s="26">
+        <v>1</v>
+      </c>
+      <c r="F83" s="25">
         <v>79</v>
       </c>
       <c r="G83">
@@ -20716,10 +20716,10 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E84" s="30">
-        <v>1</v>
-      </c>
-      <c r="F84" s="27">
+      <c r="E84" s="26">
+        <v>1</v>
+      </c>
+      <c r="F84" s="25">
         <v>80</v>
       </c>
       <c r="G84">
@@ -20806,10 +20806,10 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E85" s="30">
-        <v>1</v>
-      </c>
-      <c r="F85" s="27">
+      <c r="E85" s="26">
+        <v>1</v>
+      </c>
+      <c r="F85" s="25">
         <v>81</v>
       </c>
       <c r="G85">
@@ -20896,10 +20896,10 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E86" s="30">
-        <v>1</v>
-      </c>
-      <c r="F86" s="27">
+      <c r="E86" s="26">
+        <v>1</v>
+      </c>
+      <c r="F86" s="25">
         <v>82</v>
       </c>
       <c r="G86">
@@ -20986,10 +20986,10 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E87" s="30">
-        <v>1</v>
-      </c>
-      <c r="F87" s="27">
+      <c r="E87" s="26">
+        <v>1</v>
+      </c>
+      <c r="F87" s="25">
         <v>83</v>
       </c>
       <c r="G87">
@@ -21076,10 +21076,10 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E88" s="30">
-        <v>1</v>
-      </c>
-      <c r="F88" s="27">
+      <c r="E88" s="26">
+        <v>1</v>
+      </c>
+      <c r="F88" s="25">
         <v>84</v>
       </c>
       <c r="G88">
@@ -21166,10 +21166,10 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E89" s="30">
-        <v>1</v>
-      </c>
-      <c r="F89" s="27">
+      <c r="E89" s="26">
+        <v>1</v>
+      </c>
+      <c r="F89" s="25">
         <v>85</v>
       </c>
       <c r="G89">
@@ -21256,10 +21256,10 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E90" s="30">
-        <v>1</v>
-      </c>
-      <c r="F90" s="27">
+      <c r="E90" s="26">
+        <v>1</v>
+      </c>
+      <c r="F90" s="25">
         <v>86</v>
       </c>
       <c r="G90">
@@ -21346,10 +21346,10 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E91" s="30">
-        <v>1</v>
-      </c>
-      <c r="F91" s="27">
+      <c r="E91" s="26">
+        <v>1</v>
+      </c>
+      <c r="F91" s="25">
         <v>87</v>
       </c>
       <c r="G91">
@@ -21436,10 +21436,10 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E92" s="30">
-        <v>1</v>
-      </c>
-      <c r="F92" s="27">
+      <c r="E92" s="26">
+        <v>1</v>
+      </c>
+      <c r="F92" s="25">
         <v>88</v>
       </c>
       <c r="G92">
@@ -21526,10 +21526,10 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E93" s="30">
-        <v>1</v>
-      </c>
-      <c r="F93" s="27">
+      <c r="E93" s="26">
+        <v>1</v>
+      </c>
+      <c r="F93" s="25">
         <v>89</v>
       </c>
       <c r="G93">
@@ -21616,10 +21616,10 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E94" s="30">
-        <v>1</v>
-      </c>
-      <c r="F94" s="27">
+      <c r="E94" s="26">
+        <v>1</v>
+      </c>
+      <c r="F94" s="25">
         <v>90</v>
       </c>
       <c r="G94">
@@ -21706,10 +21706,10 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E95" s="30">
-        <v>1</v>
-      </c>
-      <c r="F95" s="27">
+      <c r="E95" s="26">
+        <v>1</v>
+      </c>
+      <c r="F95" s="25">
         <v>91</v>
       </c>
       <c r="G95">
@@ -21796,10 +21796,10 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E96" s="30">
-        <v>1</v>
-      </c>
-      <c r="F96" s="27">
+      <c r="E96" s="26">
+        <v>1</v>
+      </c>
+      <c r="F96" s="25">
         <v>92</v>
       </c>
       <c r="G96">
@@ -21886,10 +21886,10 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E97" s="30">
-        <v>1</v>
-      </c>
-      <c r="F97" s="27">
+      <c r="E97" s="26">
+        <v>1</v>
+      </c>
+      <c r="F97" s="25">
         <v>93</v>
       </c>
       <c r="G97">
@@ -21976,10 +21976,10 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E98" s="30">
-        <v>1</v>
-      </c>
-      <c r="F98" s="27">
+      <c r="E98" s="26">
+        <v>1</v>
+      </c>
+      <c r="F98" s="25">
         <v>94</v>
       </c>
       <c r="G98">
@@ -22066,10 +22066,10 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E99" s="30">
-        <v>1</v>
-      </c>
-      <c r="F99" s="27">
+      <c r="E99" s="26">
+        <v>1</v>
+      </c>
+      <c r="F99" s="25">
         <v>95</v>
       </c>
       <c r="G99">
@@ -22156,10 +22156,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E100" s="30">
-        <v>1</v>
-      </c>
-      <c r="F100" s="27">
+      <c r="E100" s="26">
+        <v>1</v>
+      </c>
+      <c r="F100" s="25">
         <v>96</v>
       </c>
       <c r="G100">
@@ -22246,10 +22246,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E101" s="30">
-        <v>1</v>
-      </c>
-      <c r="F101" s="27">
+      <c r="E101" s="26">
+        <v>1</v>
+      </c>
+      <c r="F101" s="25">
         <v>97</v>
       </c>
       <c r="G101">
@@ -22336,10 +22336,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E102" s="30">
-        <v>1</v>
-      </c>
-      <c r="F102" s="27">
+      <c r="E102" s="26">
+        <v>1</v>
+      </c>
+      <c r="F102" s="25">
         <v>98</v>
       </c>
       <c r="G102">
@@ -22426,10 +22426,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E103" s="30">
-        <v>1</v>
-      </c>
-      <c r="F103" s="27">
+      <c r="E103" s="26">
+        <v>1</v>
+      </c>
+      <c r="F103" s="25">
         <v>99</v>
       </c>
       <c r="G103">
@@ -22516,10 +22516,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E104" s="30">
-        <v>1</v>
-      </c>
-      <c r="F104" s="27">
+      <c r="E104" s="26">
+        <v>1</v>
+      </c>
+      <c r="F104" s="25">
         <v>100</v>
       </c>
       <c r="G104">
@@ -22606,10 +22606,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E105" s="30">
-        <v>1</v>
-      </c>
-      <c r="F105" s="27">
+      <c r="E105" s="26">
+        <v>1</v>
+      </c>
+      <c r="F105" s="25">
         <v>101</v>
       </c>
       <c r="G105">
@@ -22696,10 +22696,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E106" s="30">
-        <v>1</v>
-      </c>
-      <c r="F106" s="27">
+      <c r="E106" s="26">
+        <v>1</v>
+      </c>
+      <c r="F106" s="25">
         <v>102</v>
       </c>
       <c r="G106">
@@ -22786,10 +22786,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E107" s="30">
-        <v>1</v>
-      </c>
-      <c r="F107" s="27">
+      <c r="E107" s="26">
+        <v>1</v>
+      </c>
+      <c r="F107" s="25">
         <v>103</v>
       </c>
       <c r="G107">
@@ -22876,10 +22876,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E108" s="30">
-        <v>1</v>
-      </c>
-      <c r="F108" s="27">
+      <c r="E108" s="26">
+        <v>1</v>
+      </c>
+      <c r="F108" s="25">
         <v>104</v>
       </c>
       <c r="G108">
@@ -22966,10 +22966,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E109" s="30">
-        <v>1</v>
-      </c>
-      <c r="F109" s="27">
+      <c r="E109" s="26">
+        <v>1</v>
+      </c>
+      <c r="F109" s="25">
         <v>105</v>
       </c>
       <c r="G109">
@@ -23056,10 +23056,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="E110" s="30">
-        <v>1</v>
-      </c>
-      <c r="F110" s="27">
+      <c r="E110" s="26">
+        <v>1</v>
+      </c>
+      <c r="F110" s="25">
         <v>106</v>
       </c>
       <c r="G110">
@@ -23146,10 +23146,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="E111" s="30">
-        <v>1</v>
-      </c>
-      <c r="F111" s="27">
+      <c r="E111" s="26">
+        <v>1</v>
+      </c>
+      <c r="F111" s="25">
         <v>107</v>
       </c>
       <c r="G111">
@@ -23236,10 +23236,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="E112" s="30">
-        <v>1</v>
-      </c>
-      <c r="F112" s="27">
+      <c r="E112" s="26">
+        <v>1</v>
+      </c>
+      <c r="F112" s="25">
         <v>108</v>
       </c>
       <c r="G112">
@@ -23326,10 +23326,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="E113" s="30">
-        <v>1</v>
-      </c>
-      <c r="F113" s="27">
+      <c r="E113" s="26">
+        <v>1</v>
+      </c>
+      <c r="F113" s="25">
         <v>109</v>
       </c>
       <c r="G113">
@@ -23416,10 +23416,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="E114" s="30">
-        <v>1</v>
-      </c>
-      <c r="F114" s="27">
+      <c r="E114" s="26">
+        <v>1</v>
+      </c>
+      <c r="F114" s="25">
         <v>110</v>
       </c>
       <c r="G114">
@@ -23506,10 +23506,10 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E115" s="30">
-        <v>1</v>
-      </c>
-      <c r="F115" s="27">
+      <c r="E115" s="26">
+        <v>1</v>
+      </c>
+      <c r="F115" s="25">
         <v>111</v>
       </c>
       <c r="G115">
@@ -23596,10 +23596,10 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E116" s="30">
-        <v>1</v>
-      </c>
-      <c r="F116" s="27">
+      <c r="E116" s="26">
+        <v>1</v>
+      </c>
+      <c r="F116" s="25">
         <v>112</v>
       </c>
       <c r="G116">
@@ -23686,10 +23686,10 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E117" s="30">
-        <v>1</v>
-      </c>
-      <c r="F117" s="27">
+      <c r="E117" s="26">
+        <v>1</v>
+      </c>
+      <c r="F117" s="25">
         <v>113</v>
       </c>
       <c r="G117">
@@ -23776,10 +23776,10 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E118" s="30">
-        <v>1</v>
-      </c>
-      <c r="F118" s="27">
+      <c r="E118" s="26">
+        <v>1</v>
+      </c>
+      <c r="F118" s="25">
         <v>114</v>
       </c>
       <c r="G118">
@@ -23866,10 +23866,10 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E119" s="30">
-        <v>1</v>
-      </c>
-      <c r="F119" s="27">
+      <c r="E119" s="26">
+        <v>1</v>
+      </c>
+      <c r="F119" s="25">
         <v>115</v>
       </c>
       <c r="G119">
@@ -23956,10 +23956,10 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E120" s="30">
-        <v>1</v>
-      </c>
-      <c r="F120" s="27">
+      <c r="E120" s="26">
+        <v>1</v>
+      </c>
+      <c r="F120" s="25">
         <v>116</v>
       </c>
       <c r="G120">
@@ -24046,10 +24046,10 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E121" s="30">
-        <v>1</v>
-      </c>
-      <c r="F121" s="27">
+      <c r="E121" s="26">
+        <v>1</v>
+      </c>
+      <c r="F121" s="25">
         <v>117</v>
       </c>
       <c r="G121">
@@ -24136,10 +24136,10 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E122" s="30">
-        <v>1</v>
-      </c>
-      <c r="F122" s="27">
+      <c r="E122" s="26">
+        <v>1</v>
+      </c>
+      <c r="F122" s="25">
         <v>118</v>
       </c>
       <c r="G122">
@@ -24226,10 +24226,10 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E123" s="30">
-        <v>1</v>
-      </c>
-      <c r="F123" s="27">
+      <c r="E123" s="26">
+        <v>1</v>
+      </c>
+      <c r="F123" s="25">
         <v>119</v>
       </c>
       <c r="G123">
@@ -24316,10 +24316,10 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E124" s="30">
-        <v>1</v>
-      </c>
-      <c r="F124" s="27">
+      <c r="E124" s="26">
+        <v>1</v>
+      </c>
+      <c r="F124" s="25">
         <v>120</v>
       </c>
       <c r="G124">
@@ -24406,10 +24406,10 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E125" s="30">
-        <v>1</v>
-      </c>
-      <c r="F125" s="27">
+      <c r="E125" s="26">
+        <v>1</v>
+      </c>
+      <c r="F125" s="25">
         <v>121</v>
       </c>
       <c r="G125">
@@ -24496,10 +24496,10 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E126" s="30">
-        <v>1</v>
-      </c>
-      <c r="F126" s="27">
+      <c r="E126" s="26">
+        <v>1</v>
+      </c>
+      <c r="F126" s="25">
         <v>122</v>
       </c>
       <c r="G126">
@@ -24586,10 +24586,10 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E127" s="30">
-        <v>1</v>
-      </c>
-      <c r="F127" s="27">
+      <c r="E127" s="26">
+        <v>1</v>
+      </c>
+      <c r="F127" s="25">
         <v>123</v>
       </c>
       <c r="G127">
@@ -24676,10 +24676,10 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E128" s="30">
-        <v>1</v>
-      </c>
-      <c r="F128" s="27">
+      <c r="E128" s="26">
+        <v>1</v>
+      </c>
+      <c r="F128" s="25">
         <v>124</v>
       </c>
       <c r="G128">
@@ -24766,10 +24766,10 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E129" s="30">
-        <v>1</v>
-      </c>
-      <c r="F129" s="27">
+      <c r="E129" s="26">
+        <v>1</v>
+      </c>
+      <c r="F129" s="25">
         <v>125</v>
       </c>
       <c r="G129">
@@ -24856,10 +24856,10 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E130" s="30">
-        <v>1</v>
-      </c>
-      <c r="F130" s="27">
+      <c r="E130" s="26">
+        <v>1</v>
+      </c>
+      <c r="F130" s="25">
         <v>126</v>
       </c>
       <c r="G130">
@@ -24946,10 +24946,10 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E131" s="30">
-        <v>1</v>
-      </c>
-      <c r="F131" s="27">
+      <c r="E131" s="26">
+        <v>1</v>
+      </c>
+      <c r="F131" s="25">
         <v>127</v>
       </c>
       <c r="G131">
@@ -25036,10 +25036,10 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E132" s="30">
-        <v>1</v>
-      </c>
-      <c r="F132" s="27">
+      <c r="E132" s="26">
+        <v>1</v>
+      </c>
+      <c r="F132" s="25">
         <v>128</v>
       </c>
       <c r="G132">
@@ -25126,10 +25126,10 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E133" s="30">
-        <v>1</v>
-      </c>
-      <c r="F133" s="27">
+      <c r="E133" s="26">
+        <v>1</v>
+      </c>
+      <c r="F133" s="25">
         <v>129</v>
       </c>
       <c r="G133">
@@ -25216,10 +25216,10 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E134" s="30">
-        <v>1</v>
-      </c>
-      <c r="F134" s="27">
+      <c r="E134" s="26">
+        <v>1</v>
+      </c>
+      <c r="F134" s="25">
         <v>130</v>
       </c>
       <c r="G134">
@@ -25306,10 +25306,10 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E135" s="30">
-        <v>1</v>
-      </c>
-      <c r="F135" s="27">
+      <c r="E135" s="26">
+        <v>1</v>
+      </c>
+      <c r="F135" s="25">
         <v>131</v>
       </c>
       <c r="G135">
@@ -25396,10 +25396,10 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E136" s="30">
-        <v>1</v>
-      </c>
-      <c r="F136" s="27">
+      <c r="E136" s="26">
+        <v>1</v>
+      </c>
+      <c r="F136" s="25">
         <v>132</v>
       </c>
       <c r="G136">
@@ -25486,10 +25486,10 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E137" s="30">
-        <v>1</v>
-      </c>
-      <c r="F137" s="27">
+      <c r="E137" s="26">
+        <v>1</v>
+      </c>
+      <c r="F137" s="25">
         <v>133</v>
       </c>
       <c r="G137">
@@ -25576,10 +25576,10 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E138" s="30">
-        <v>1</v>
-      </c>
-      <c r="F138" s="27">
+      <c r="E138" s="26">
+        <v>1</v>
+      </c>
+      <c r="F138" s="25">
         <v>134</v>
       </c>
       <c r="G138">
@@ -25666,10 +25666,10 @@
         <f t="shared" ref="D139:D202" si="2">D134+1</f>
         <v>27</v>
       </c>
-      <c r="E139" s="30">
-        <v>1</v>
-      </c>
-      <c r="F139" s="27">
+      <c r="E139" s="26">
+        <v>1</v>
+      </c>
+      <c r="F139" s="25">
         <v>135</v>
       </c>
       <c r="G139">
@@ -25756,10 +25756,10 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="E140" s="30">
-        <v>1</v>
-      </c>
-      <c r="F140" s="27">
+      <c r="E140" s="26">
+        <v>1</v>
+      </c>
+      <c r="F140" s="25">
         <v>136</v>
       </c>
       <c r="G140">
@@ -25846,10 +25846,10 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="E141" s="30">
-        <v>1</v>
-      </c>
-      <c r="F141" s="27">
+      <c r="E141" s="26">
+        <v>1</v>
+      </c>
+      <c r="F141" s="25">
         <v>137</v>
       </c>
       <c r="G141">
@@ -25936,10 +25936,10 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="E142" s="30">
-        <v>1</v>
-      </c>
-      <c r="F142" s="27">
+      <c r="E142" s="26">
+        <v>1</v>
+      </c>
+      <c r="F142" s="25">
         <v>138</v>
       </c>
       <c r="G142">
@@ -26026,10 +26026,10 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="E143" s="30">
-        <v>1</v>
-      </c>
-      <c r="F143" s="27">
+      <c r="E143" s="26">
+        <v>1</v>
+      </c>
+      <c r="F143" s="25">
         <v>139</v>
       </c>
       <c r="G143">
@@ -26116,10 +26116,10 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="E144" s="30">
-        <v>1</v>
-      </c>
-      <c r="F144" s="27">
+      <c r="E144" s="26">
+        <v>1</v>
+      </c>
+      <c r="F144" s="25">
         <v>140</v>
       </c>
       <c r="G144">
@@ -26206,10 +26206,10 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="E145" s="30">
-        <v>1</v>
-      </c>
-      <c r="F145" s="27">
+      <c r="E145" s="26">
+        <v>1</v>
+      </c>
+      <c r="F145" s="25">
         <v>141</v>
       </c>
       <c r="G145">
@@ -26296,10 +26296,10 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="E146" s="30">
-        <v>1</v>
-      </c>
-      <c r="F146" s="27">
+      <c r="E146" s="26">
+        <v>1</v>
+      </c>
+      <c r="F146" s="25">
         <v>142</v>
       </c>
       <c r="G146">
@@ -26386,10 +26386,10 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="E147" s="30">
-        <v>1</v>
-      </c>
-      <c r="F147" s="27">
+      <c r="E147" s="26">
+        <v>1</v>
+      </c>
+      <c r="F147" s="25">
         <v>143</v>
       </c>
       <c r="G147">
@@ -26476,10 +26476,10 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="E148" s="30">
-        <v>1</v>
-      </c>
-      <c r="F148" s="27">
+      <c r="E148" s="26">
+        <v>1</v>
+      </c>
+      <c r="F148" s="25">
         <v>144</v>
       </c>
       <c r="G148">
@@ -26566,10 +26566,10 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="E149" s="30">
-        <v>1</v>
-      </c>
-      <c r="F149" s="27">
+      <c r="E149" s="26">
+        <v>1</v>
+      </c>
+      <c r="F149" s="25">
         <v>145</v>
       </c>
       <c r="G149">
@@ -26656,10 +26656,10 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="E150" s="30">
-        <v>1</v>
-      </c>
-      <c r="F150" s="27">
+      <c r="E150" s="26">
+        <v>1</v>
+      </c>
+      <c r="F150" s="25">
         <v>146</v>
       </c>
       <c r="G150">
@@ -26746,10 +26746,10 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="E151" s="30">
-        <v>1</v>
-      </c>
-      <c r="F151" s="27">
+      <c r="E151" s="26">
+        <v>1</v>
+      </c>
+      <c r="F151" s="25">
         <v>147</v>
       </c>
       <c r="G151">
@@ -26836,10 +26836,10 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="E152" s="30">
-        <v>1</v>
-      </c>
-      <c r="F152" s="27">
+      <c r="E152" s="26">
+        <v>1</v>
+      </c>
+      <c r="F152" s="25">
         <v>148</v>
       </c>
       <c r="G152">
@@ -26926,10 +26926,10 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="E153" s="30">
-        <v>1</v>
-      </c>
-      <c r="F153" s="27">
+      <c r="E153" s="26">
+        <v>1</v>
+      </c>
+      <c r="F153" s="25">
         <v>149</v>
       </c>
       <c r="G153">
@@ -27016,10 +27016,10 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="E154" s="30">
-        <v>1</v>
-      </c>
-      <c r="F154" s="27">
+      <c r="E154" s="26">
+        <v>1</v>
+      </c>
+      <c r="F154" s="25">
         <v>150</v>
       </c>
       <c r="G154">
@@ -27106,10 +27106,10 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="E155" s="30">
-        <v>1</v>
-      </c>
-      <c r="F155" s="27">
+      <c r="E155" s="26">
+        <v>1</v>
+      </c>
+      <c r="F155" s="25">
         <v>151</v>
       </c>
       <c r="G155">
@@ -27196,10 +27196,10 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="E156" s="30">
-        <v>1</v>
-      </c>
-      <c r="F156" s="27">
+      <c r="E156" s="26">
+        <v>1</v>
+      </c>
+      <c r="F156" s="25">
         <v>152</v>
       </c>
       <c r="G156">
@@ -27286,10 +27286,10 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="E157" s="30">
-        <v>1</v>
-      </c>
-      <c r="F157" s="27">
+      <c r="E157" s="26">
+        <v>1</v>
+      </c>
+      <c r="F157" s="25">
         <v>153</v>
       </c>
       <c r="G157">
@@ -27376,10 +27376,10 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="E158" s="30">
-        <v>1</v>
-      </c>
-      <c r="F158" s="27">
+      <c r="E158" s="26">
+        <v>1</v>
+      </c>
+      <c r="F158" s="25">
         <v>154</v>
       </c>
       <c r="G158">
@@ -27466,10 +27466,10 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="E159" s="30">
-        <v>1</v>
-      </c>
-      <c r="F159" s="27">
+      <c r="E159" s="26">
+        <v>1</v>
+      </c>
+      <c r="F159" s="25">
         <v>155</v>
       </c>
       <c r="G159">
@@ -27556,10 +27556,10 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="E160" s="30">
-        <v>1</v>
-      </c>
-      <c r="F160" s="27">
+      <c r="E160" s="26">
+        <v>1</v>
+      </c>
+      <c r="F160" s="25">
         <v>156</v>
       </c>
       <c r="G160">
@@ -27646,10 +27646,10 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="E161" s="30">
-        <v>1</v>
-      </c>
-      <c r="F161" s="27">
+      <c r="E161" s="26">
+        <v>1</v>
+      </c>
+      <c r="F161" s="25">
         <v>157</v>
       </c>
       <c r="G161">
@@ -27736,10 +27736,10 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="E162" s="30">
-        <v>1</v>
-      </c>
-      <c r="F162" s="27">
+      <c r="E162" s="26">
+        <v>1</v>
+      </c>
+      <c r="F162" s="25">
         <v>158</v>
       </c>
       <c r="G162">
@@ -27826,10 +27826,10 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="E163" s="30">
-        <v>1</v>
-      </c>
-      <c r="F163" s="27">
+      <c r="E163" s="26">
+        <v>1</v>
+      </c>
+      <c r="F163" s="25">
         <v>159</v>
       </c>
       <c r="G163">
@@ -27916,10 +27916,10 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="E164" s="30">
-        <v>1</v>
-      </c>
-      <c r="F164" s="27">
+      <c r="E164" s="26">
+        <v>1</v>
+      </c>
+      <c r="F164" s="25">
         <v>160</v>
       </c>
       <c r="G164">
@@ -28006,10 +28006,10 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="E165" s="30">
-        <v>1</v>
-      </c>
-      <c r="F165" s="27">
+      <c r="E165" s="26">
+        <v>1</v>
+      </c>
+      <c r="F165" s="25">
         <v>161</v>
       </c>
       <c r="G165">
@@ -28096,10 +28096,10 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="E166" s="30">
-        <v>1</v>
-      </c>
-      <c r="F166" s="27">
+      <c r="E166" s="26">
+        <v>1</v>
+      </c>
+      <c r="F166" s="25">
         <v>162</v>
       </c>
       <c r="G166">
@@ -28186,10 +28186,10 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="E167" s="30">
-        <v>1</v>
-      </c>
-      <c r="F167" s="27">
+      <c r="E167" s="26">
+        <v>1</v>
+      </c>
+      <c r="F167" s="25">
         <v>163</v>
       </c>
       <c r="G167">
@@ -28276,10 +28276,10 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="E168" s="30">
-        <v>1</v>
-      </c>
-      <c r="F168" s="27">
+      <c r="E168" s="26">
+        <v>1</v>
+      </c>
+      <c r="F168" s="25">
         <v>164</v>
       </c>
       <c r="G168">
@@ -28366,10 +28366,10 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="E169" s="30">
-        <v>1</v>
-      </c>
-      <c r="F169" s="27">
+      <c r="E169" s="26">
+        <v>1</v>
+      </c>
+      <c r="F169" s="25">
         <v>165</v>
       </c>
       <c r="G169">
@@ -28456,10 +28456,10 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="E170" s="30">
-        <v>1</v>
-      </c>
-      <c r="F170" s="27">
+      <c r="E170" s="26">
+        <v>1</v>
+      </c>
+      <c r="F170" s="25">
         <v>166</v>
       </c>
       <c r="G170">
@@ -28546,10 +28546,10 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="E171" s="30">
-        <v>1</v>
-      </c>
-      <c r="F171" s="27">
+      <c r="E171" s="26">
+        <v>1</v>
+      </c>
+      <c r="F171" s="25">
         <v>167</v>
       </c>
       <c r="G171">
@@ -28636,10 +28636,10 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="E172" s="30">
-        <v>1</v>
-      </c>
-      <c r="F172" s="27">
+      <c r="E172" s="26">
+        <v>1</v>
+      </c>
+      <c r="F172" s="25">
         <v>168</v>
       </c>
       <c r="G172">
@@ -28726,10 +28726,10 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="E173" s="30">
-        <v>1</v>
-      </c>
-      <c r="F173" s="27">
+      <c r="E173" s="26">
+        <v>1</v>
+      </c>
+      <c r="F173" s="25">
         <v>169</v>
       </c>
       <c r="G173">
@@ -28816,10 +28816,10 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="E174" s="30">
-        <v>1</v>
-      </c>
-      <c r="F174" s="27">
+      <c r="E174" s="26">
+        <v>1</v>
+      </c>
+      <c r="F174" s="25">
         <v>170</v>
       </c>
       <c r="G174">
@@ -28906,10 +28906,10 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="E175" s="30">
-        <v>1</v>
-      </c>
-      <c r="F175" s="27">
+      <c r="E175" s="26">
+        <v>1</v>
+      </c>
+      <c r="F175" s="25">
         <v>171</v>
       </c>
       <c r="G175">
@@ -28996,10 +28996,10 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="E176" s="30">
-        <v>1</v>
-      </c>
-      <c r="F176" s="27">
+      <c r="E176" s="26">
+        <v>1</v>
+      </c>
+      <c r="F176" s="25">
         <v>172</v>
       </c>
       <c r="G176">
@@ -29086,10 +29086,10 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="E177" s="30">
-        <v>1</v>
-      </c>
-      <c r="F177" s="27">
+      <c r="E177" s="26">
+        <v>1</v>
+      </c>
+      <c r="F177" s="25">
         <v>173</v>
       </c>
       <c r="G177">
@@ -29176,10 +29176,10 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="E178" s="30">
-        <v>1</v>
-      </c>
-      <c r="F178" s="27">
+      <c r="E178" s="26">
+        <v>1</v>
+      </c>
+      <c r="F178" s="25">
         <v>174</v>
       </c>
       <c r="G178">
@@ -29266,10 +29266,10 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="E179" s="30">
-        <v>1</v>
-      </c>
-      <c r="F179" s="27">
+      <c r="E179" s="26">
+        <v>1</v>
+      </c>
+      <c r="F179" s="25">
         <v>175</v>
       </c>
       <c r="G179">
@@ -29356,10 +29356,10 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="E180" s="30">
-        <v>1</v>
-      </c>
-      <c r="F180" s="27">
+      <c r="E180" s="26">
+        <v>1</v>
+      </c>
+      <c r="F180" s="25">
         <v>176</v>
       </c>
       <c r="G180">
@@ -29446,10 +29446,10 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="E181" s="30">
-        <v>1</v>
-      </c>
-      <c r="F181" s="27">
+      <c r="E181" s="26">
+        <v>1</v>
+      </c>
+      <c r="F181" s="25">
         <v>177</v>
       </c>
       <c r="G181">
@@ -29536,10 +29536,10 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="E182" s="30">
-        <v>1</v>
-      </c>
-      <c r="F182" s="27">
+      <c r="E182" s="26">
+        <v>1</v>
+      </c>
+      <c r="F182" s="25">
         <v>178</v>
       </c>
       <c r="G182">
@@ -29626,10 +29626,10 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="E183" s="30">
-        <v>1</v>
-      </c>
-      <c r="F183" s="27">
+      <c r="E183" s="26">
+        <v>1</v>
+      </c>
+      <c r="F183" s="25">
         <v>179</v>
       </c>
       <c r="G183">
@@ -29716,10 +29716,10 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="E184" s="30">
-        <v>1</v>
-      </c>
-      <c r="F184" s="27">
+      <c r="E184" s="26">
+        <v>1</v>
+      </c>
+      <c r="F184" s="25">
         <v>180</v>
       </c>
       <c r="G184">
@@ -29806,10 +29806,10 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="E185" s="30">
-        <v>1</v>
-      </c>
-      <c r="F185" s="27">
+      <c r="E185" s="26">
+        <v>1</v>
+      </c>
+      <c r="F185" s="25">
         <v>181</v>
       </c>
       <c r="G185">
@@ -29896,10 +29896,10 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="E186" s="30">
-        <v>1</v>
-      </c>
-      <c r="F186" s="27">
+      <c r="E186" s="26">
+        <v>1</v>
+      </c>
+      <c r="F186" s="25">
         <v>182</v>
       </c>
       <c r="G186">
@@ -29986,10 +29986,10 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="E187" s="30">
-        <v>1</v>
-      </c>
-      <c r="F187" s="27">
+      <c r="E187" s="26">
+        <v>1</v>
+      </c>
+      <c r="F187" s="25">
         <v>183</v>
       </c>
       <c r="G187">
@@ -30076,10 +30076,10 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="E188" s="30">
-        <v>1</v>
-      </c>
-      <c r="F188" s="27">
+      <c r="E188" s="26">
+        <v>1</v>
+      </c>
+      <c r="F188" s="25">
         <v>184</v>
       </c>
       <c r="G188">
@@ -30166,10 +30166,10 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="E189" s="30">
-        <v>1</v>
-      </c>
-      <c r="F189" s="27">
+      <c r="E189" s="26">
+        <v>1</v>
+      </c>
+      <c r="F189" s="25">
         <v>185</v>
       </c>
       <c r="G189">
@@ -30256,10 +30256,10 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="E190" s="30">
-        <v>1</v>
-      </c>
-      <c r="F190" s="27">
+      <c r="E190" s="26">
+        <v>1</v>
+      </c>
+      <c r="F190" s="25">
         <v>186</v>
       </c>
       <c r="G190">
@@ -30346,10 +30346,10 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="E191" s="30">
-        <v>1</v>
-      </c>
-      <c r="F191" s="27">
+      <c r="E191" s="26">
+        <v>1</v>
+      </c>
+      <c r="F191" s="25">
         <v>187</v>
       </c>
       <c r="G191">
@@ -30436,10 +30436,10 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="E192" s="30">
-        <v>1</v>
-      </c>
-      <c r="F192" s="27">
+      <c r="E192" s="26">
+        <v>1</v>
+      </c>
+      <c r="F192" s="25">
         <v>188</v>
       </c>
       <c r="G192">
@@ -30526,10 +30526,10 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="E193" s="30">
-        <v>1</v>
-      </c>
-      <c r="F193" s="27">
+      <c r="E193" s="26">
+        <v>1</v>
+      </c>
+      <c r="F193" s="25">
         <v>189</v>
       </c>
       <c r="G193">
@@ -30616,10 +30616,10 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="E194" s="30">
-        <v>1</v>
-      </c>
-      <c r="F194" s="27">
+      <c r="E194" s="26">
+        <v>1</v>
+      </c>
+      <c r="F194" s="25">
         <v>190</v>
       </c>
       <c r="G194">
@@ -30706,10 +30706,10 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="E195" s="30">
-        <v>1</v>
-      </c>
-      <c r="F195" s="27">
+      <c r="E195" s="26">
+        <v>1</v>
+      </c>
+      <c r="F195" s="25">
         <v>191</v>
       </c>
       <c r="G195">
@@ -30796,10 +30796,10 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="E196" s="30">
-        <v>1</v>
-      </c>
-      <c r="F196" s="27">
+      <c r="E196" s="26">
+        <v>1</v>
+      </c>
+      <c r="F196" s="25">
         <v>192</v>
       </c>
       <c r="G196">
@@ -30886,10 +30886,10 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="E197" s="30">
-        <v>1</v>
-      </c>
-      <c r="F197" s="27">
+      <c r="E197" s="26">
+        <v>1</v>
+      </c>
+      <c r="F197" s="25">
         <v>193</v>
       </c>
       <c r="G197">
@@ -30976,10 +30976,10 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="E198" s="30">
-        <v>1</v>
-      </c>
-      <c r="F198" s="27">
+      <c r="E198" s="26">
+        <v>1</v>
+      </c>
+      <c r="F198" s="25">
         <v>194</v>
       </c>
       <c r="G198">
@@ -31066,10 +31066,10 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="E199" s="30">
-        <v>1</v>
-      </c>
-      <c r="F199" s="27">
+      <c r="E199" s="26">
+        <v>1</v>
+      </c>
+      <c r="F199" s="25">
         <v>195</v>
       </c>
       <c r="G199">
@@ -31156,10 +31156,10 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="E200" s="30">
-        <v>1</v>
-      </c>
-      <c r="F200" s="27">
+      <c r="E200" s="26">
+        <v>1</v>
+      </c>
+      <c r="F200" s="25">
         <v>196</v>
       </c>
       <c r="G200">
@@ -31246,10 +31246,10 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="E201" s="30">
-        <v>1</v>
-      </c>
-      <c r="F201" s="27">
+      <c r="E201" s="26">
+        <v>1</v>
+      </c>
+      <c r="F201" s="25">
         <v>197</v>
       </c>
       <c r="G201">
@@ -31336,10 +31336,10 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="E202" s="30">
-        <v>1</v>
-      </c>
-      <c r="F202" s="27">
+      <c r="E202" s="26">
+        <v>1</v>
+      </c>
+      <c r="F202" s="25">
         <v>198</v>
       </c>
       <c r="G202">
@@ -31426,10 +31426,10 @@
         <f t="shared" ref="D203:D266" si="3">D198+1</f>
         <v>40</v>
       </c>
-      <c r="E203" s="30">
-        <v>1</v>
-      </c>
-      <c r="F203" s="27">
+      <c r="E203" s="26">
+        <v>1</v>
+      </c>
+      <c r="F203" s="25">
         <v>199</v>
       </c>
       <c r="G203">
@@ -31516,10 +31516,10 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="E204" s="30">
-        <v>1</v>
-      </c>
-      <c r="F204" s="27">
+      <c r="E204" s="26">
+        <v>1</v>
+      </c>
+      <c r="F204" s="25">
         <v>200</v>
       </c>
       <c r="G204">
@@ -31606,10 +31606,10 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="E205" s="30">
-        <v>1</v>
-      </c>
-      <c r="F205" s="27">
+      <c r="E205" s="26">
+        <v>1</v>
+      </c>
+      <c r="F205" s="25">
         <v>201</v>
       </c>
       <c r="G205">
@@ -31696,10 +31696,10 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="E206" s="30">
-        <v>1</v>
-      </c>
-      <c r="F206" s="27">
+      <c r="E206" s="26">
+        <v>1</v>
+      </c>
+      <c r="F206" s="25">
         <v>202</v>
       </c>
       <c r="G206">
@@ -31786,10 +31786,10 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="E207" s="30">
-        <v>1</v>
-      </c>
-      <c r="F207" s="27">
+      <c r="E207" s="26">
+        <v>1</v>
+      </c>
+      <c r="F207" s="25">
         <v>203</v>
       </c>
       <c r="G207">
@@ -31876,10 +31876,10 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="E208" s="30">
-        <v>1</v>
-      </c>
-      <c r="F208" s="27">
+      <c r="E208" s="26">
+        <v>1</v>
+      </c>
+      <c r="F208" s="25">
         <v>204</v>
       </c>
       <c r="G208">
@@ -31966,10 +31966,10 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="E209" s="30">
-        <v>1</v>
-      </c>
-      <c r="F209" s="27">
+      <c r="E209" s="26">
+        <v>1</v>
+      </c>
+      <c r="F209" s="25">
         <v>205</v>
       </c>
       <c r="G209">
@@ -32056,10 +32056,10 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="E210" s="30">
-        <v>1</v>
-      </c>
-      <c r="F210" s="27">
+      <c r="E210" s="26">
+        <v>1</v>
+      </c>
+      <c r="F210" s="25">
         <v>206</v>
       </c>
       <c r="G210">
@@ -32146,10 +32146,10 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="E211" s="30">
-        <v>1</v>
-      </c>
-      <c r="F211" s="27">
+      <c r="E211" s="26">
+        <v>1</v>
+      </c>
+      <c r="F211" s="25">
         <v>207</v>
       </c>
       <c r="G211">
@@ -32236,10 +32236,10 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="E212" s="30">
-        <v>1</v>
-      </c>
-      <c r="F212" s="27">
+      <c r="E212" s="26">
+        <v>1</v>
+      </c>
+      <c r="F212" s="25">
         <v>208</v>
       </c>
       <c r="G212">
@@ -32326,10 +32326,10 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="E213" s="30">
-        <v>1</v>
-      </c>
-      <c r="F213" s="27">
+      <c r="E213" s="26">
+        <v>1</v>
+      </c>
+      <c r="F213" s="25">
         <v>209</v>
       </c>
       <c r="G213">
@@ -32416,10 +32416,10 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="E214" s="30">
-        <v>1</v>
-      </c>
-      <c r="F214" s="27">
+      <c r="E214" s="26">
+        <v>1</v>
+      </c>
+      <c r="F214" s="25">
         <v>210</v>
       </c>
       <c r="G214">
@@ -32506,10 +32506,10 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="E215" s="30">
-        <v>1</v>
-      </c>
-      <c r="F215" s="27">
+      <c r="E215" s="26">
+        <v>1</v>
+      </c>
+      <c r="F215" s="25">
         <v>211</v>
       </c>
       <c r="G215">
@@ -32596,10 +32596,10 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="E216" s="30">
-        <v>1</v>
-      </c>
-      <c r="F216" s="27">
+      <c r="E216" s="26">
+        <v>1</v>
+      </c>
+      <c r="F216" s="25">
         <v>212</v>
       </c>
       <c r="G216">
@@ -32686,10 +32686,10 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="E217" s="30">
-        <v>1</v>
-      </c>
-      <c r="F217" s="27">
+      <c r="E217" s="26">
+        <v>1</v>
+      </c>
+      <c r="F217" s="25">
         <v>213</v>
       </c>
       <c r="G217">
@@ -32776,10 +32776,10 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="E218" s="30">
-        <v>1</v>
-      </c>
-      <c r="F218" s="27">
+      <c r="E218" s="26">
+        <v>1</v>
+      </c>
+      <c r="F218" s="25">
         <v>214</v>
       </c>
       <c r="G218">
@@ -32866,10 +32866,10 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="E219" s="30">
-        <v>1</v>
-      </c>
-      <c r="F219" s="27">
+      <c r="E219" s="26">
+        <v>1</v>
+      </c>
+      <c r="F219" s="25">
         <v>215</v>
       </c>
       <c r="G219">
@@ -32956,10 +32956,10 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="E220" s="30">
-        <v>1</v>
-      </c>
-      <c r="F220" s="27">
+      <c r="E220" s="26">
+        <v>1</v>
+      </c>
+      <c r="F220" s="25">
         <v>216</v>
       </c>
       <c r="G220">
@@ -33046,10 +33046,10 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="E221" s="30">
-        <v>1</v>
-      </c>
-      <c r="F221" s="27">
+      <c r="E221" s="26">
+        <v>1</v>
+      </c>
+      <c r="F221" s="25">
         <v>217</v>
       </c>
       <c r="G221">
@@ -33136,10 +33136,10 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="E222" s="30">
-        <v>1</v>
-      </c>
-      <c r="F222" s="27">
+      <c r="E222" s="26">
+        <v>1</v>
+      </c>
+      <c r="F222" s="25">
         <v>218</v>
       </c>
       <c r="G222">
@@ -33226,10 +33226,10 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="E223" s="30">
-        <v>1</v>
-      </c>
-      <c r="F223" s="27">
+      <c r="E223" s="26">
+        <v>1</v>
+      </c>
+      <c r="F223" s="25">
         <v>219</v>
       </c>
       <c r="G223">
@@ -33316,10 +33316,10 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="E224" s="30">
-        <v>1</v>
-      </c>
-      <c r="F224" s="27">
+      <c r="E224" s="26">
+        <v>1</v>
+      </c>
+      <c r="F224" s="25">
         <v>220</v>
       </c>
       <c r="G224">
@@ -33406,10 +33406,10 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="E225" s="30">
-        <v>1</v>
-      </c>
-      <c r="F225" s="27">
+      <c r="E225" s="26">
+        <v>1</v>
+      </c>
+      <c r="F225" s="25">
         <v>221</v>
       </c>
       <c r="G225">
@@ -33496,10 +33496,10 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="E226" s="30">
-        <v>1</v>
-      </c>
-      <c r="F226" s="27">
+      <c r="E226" s="26">
+        <v>1</v>
+      </c>
+      <c r="F226" s="25">
         <v>222</v>
       </c>
       <c r="G226">
@@ -33586,10 +33586,10 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="E227" s="30">
-        <v>1</v>
-      </c>
-      <c r="F227" s="27">
+      <c r="E227" s="26">
+        <v>1</v>
+      </c>
+      <c r="F227" s="25">
         <v>223</v>
       </c>
       <c r="G227">
@@ -33676,10 +33676,10 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="E228" s="30">
-        <v>1</v>
-      </c>
-      <c r="F228" s="27">
+      <c r="E228" s="26">
+        <v>1</v>
+      </c>
+      <c r="F228" s="25">
         <v>224</v>
       </c>
       <c r="G228">
@@ -33766,10 +33766,10 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="E229" s="30">
-        <v>1</v>
-      </c>
-      <c r="F229" s="27">
+      <c r="E229" s="26">
+        <v>1</v>
+      </c>
+      <c r="F229" s="25">
         <v>225</v>
       </c>
       <c r="G229">
@@ -33856,10 +33856,10 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="E230" s="30">
-        <v>1</v>
-      </c>
-      <c r="F230" s="27">
+      <c r="E230" s="26">
+        <v>1</v>
+      </c>
+      <c r="F230" s="25">
         <v>226</v>
       </c>
       <c r="G230">
@@ -33946,10 +33946,10 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="E231" s="30">
-        <v>1</v>
-      </c>
-      <c r="F231" s="27">
+      <c r="E231" s="26">
+        <v>1</v>
+      </c>
+      <c r="F231" s="25">
         <v>227</v>
       </c>
       <c r="G231">
@@ -34036,10 +34036,10 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="E232" s="30">
-        <v>1</v>
-      </c>
-      <c r="F232" s="27">
+      <c r="E232" s="26">
+        <v>1</v>
+      </c>
+      <c r="F232" s="25">
         <v>228</v>
       </c>
       <c r="G232">
@@ -34126,10 +34126,10 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="E233" s="30">
-        <v>1</v>
-      </c>
-      <c r="F233" s="27">
+      <c r="E233" s="26">
+        <v>1</v>
+      </c>
+      <c r="F233" s="25">
         <v>229</v>
       </c>
       <c r="G233">
@@ -34216,10 +34216,10 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="E234" s="30">
-        <v>1</v>
-      </c>
-      <c r="F234" s="27">
+      <c r="E234" s="26">
+        <v>1</v>
+      </c>
+      <c r="F234" s="25">
         <v>230</v>
       </c>
       <c r="G234">
@@ -34306,10 +34306,10 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="E235" s="30">
-        <v>1</v>
-      </c>
-      <c r="F235" s="27">
+      <c r="E235" s="26">
+        <v>1</v>
+      </c>
+      <c r="F235" s="25">
         <v>231</v>
       </c>
       <c r="G235">
@@ -34396,10 +34396,10 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="E236" s="30">
-        <v>1</v>
-      </c>
-      <c r="F236" s="27">
+      <c r="E236" s="26">
+        <v>1</v>
+      </c>
+      <c r="F236" s="25">
         <v>232</v>
       </c>
       <c r="G236">
@@ -34486,10 +34486,10 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="E237" s="30">
-        <v>1</v>
-      </c>
-      <c r="F237" s="27">
+      <c r="E237" s="26">
+        <v>1</v>
+      </c>
+      <c r="F237" s="25">
         <v>233</v>
       </c>
       <c r="G237">
@@ -34576,10 +34576,10 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="E238" s="30">
-        <v>1</v>
-      </c>
-      <c r="F238" s="27">
+      <c r="E238" s="26">
+        <v>1</v>
+      </c>
+      <c r="F238" s="25">
         <v>234</v>
       </c>
       <c r="G238">
@@ -34666,10 +34666,10 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="E239" s="30">
-        <v>1</v>
-      </c>
-      <c r="F239" s="27">
+      <c r="E239" s="26">
+        <v>1</v>
+      </c>
+      <c r="F239" s="25">
         <v>235</v>
       </c>
       <c r="G239">
@@ -34756,10 +34756,10 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="E240" s="30">
-        <v>1</v>
-      </c>
-      <c r="F240" s="27">
+      <c r="E240" s="26">
+        <v>1</v>
+      </c>
+      <c r="F240" s="25">
         <v>236</v>
       </c>
       <c r="G240">
@@ -34846,10 +34846,10 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="E241" s="30">
-        <v>1</v>
-      </c>
-      <c r="F241" s="27">
+      <c r="E241" s="26">
+        <v>1</v>
+      </c>
+      <c r="F241" s="25">
         <v>237</v>
       </c>
       <c r="G241">
@@ -34936,10 +34936,10 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="E242" s="30">
-        <v>1</v>
-      </c>
-      <c r="F242" s="27">
+      <c r="E242" s="26">
+        <v>1</v>
+      </c>
+      <c r="F242" s="25">
         <v>238</v>
       </c>
       <c r="G242">
@@ -35026,10 +35026,10 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="E243" s="30">
-        <v>1</v>
-      </c>
-      <c r="F243" s="27">
+      <c r="E243" s="26">
+        <v>1</v>
+      </c>
+      <c r="F243" s="25">
         <v>239</v>
       </c>
       <c r="G243">
@@ -35116,10 +35116,10 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="E244" s="30">
-        <v>1</v>
-      </c>
-      <c r="F244" s="27">
+      <c r="E244" s="26">
+        <v>1</v>
+      </c>
+      <c r="F244" s="25">
         <v>240</v>
       </c>
       <c r="G244">
@@ -35206,10 +35206,10 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="E245" s="30">
-        <v>1</v>
-      </c>
-      <c r="F245" s="27">
+      <c r="E245" s="26">
+        <v>1</v>
+      </c>
+      <c r="F245" s="25">
         <v>241</v>
       </c>
       <c r="G245">
@@ -35296,10 +35296,10 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="E246" s="30">
-        <v>1</v>
-      </c>
-      <c r="F246" s="27">
+      <c r="E246" s="26">
+        <v>1</v>
+      </c>
+      <c r="F246" s="25">
         <v>242</v>
       </c>
       <c r="G246">
@@ -35386,10 +35386,10 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="E247" s="30">
-        <v>1</v>
-      </c>
-      <c r="F247" s="27">
+      <c r="E247" s="26">
+        <v>1</v>
+      </c>
+      <c r="F247" s="25">
         <v>243</v>
       </c>
       <c r="G247">
@@ -35476,10 +35476,10 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="E248" s="30">
-        <v>1</v>
-      </c>
-      <c r="F248" s="27">
+      <c r="E248" s="26">
+        <v>1</v>
+      </c>
+      <c r="F248" s="25">
         <v>244</v>
       </c>
       <c r="G248">
@@ -35566,10 +35566,10 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="E249" s="30">
-        <v>1</v>
-      </c>
-      <c r="F249" s="27">
+      <c r="E249" s="26">
+        <v>1</v>
+      </c>
+      <c r="F249" s="25">
         <v>245</v>
       </c>
       <c r="G249">
@@ -35656,10 +35656,10 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="E250" s="30">
-        <v>1</v>
-      </c>
-      <c r="F250" s="27">
+      <c r="E250" s="26">
+        <v>1</v>
+      </c>
+      <c r="F250" s="25">
         <v>246</v>
       </c>
       <c r="G250">
@@ -35746,10 +35746,10 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="E251" s="30">
-        <v>1</v>
-      </c>
-      <c r="F251" s="27">
+      <c r="E251" s="26">
+        <v>1</v>
+      </c>
+      <c r="F251" s="25">
         <v>247</v>
       </c>
       <c r="G251">
@@ -35836,10 +35836,10 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="E252" s="30">
-        <v>1</v>
-      </c>
-      <c r="F252" s="27">
+      <c r="E252" s="26">
+        <v>1</v>
+      </c>
+      <c r="F252" s="25">
         <v>248</v>
       </c>
       <c r="G252">
@@ -35926,10 +35926,10 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="E253" s="30">
-        <v>1</v>
-      </c>
-      <c r="F253" s="27">
+      <c r="E253" s="26">
+        <v>1</v>
+      </c>
+      <c r="F253" s="25">
         <v>249</v>
       </c>
       <c r="G253">
@@ -36016,10 +36016,10 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="E254" s="30">
-        <v>1</v>
-      </c>
-      <c r="F254" s="27">
+      <c r="E254" s="26">
+        <v>1</v>
+      </c>
+      <c r="F254" s="25">
         <v>250</v>
       </c>
       <c r="G254">
@@ -36106,10 +36106,10 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="E255" s="30">
-        <v>1</v>
-      </c>
-      <c r="F255" s="27">
+      <c r="E255" s="26">
+        <v>1</v>
+      </c>
+      <c r="F255" s="25">
         <v>251</v>
       </c>
       <c r="G255">
@@ -36196,10 +36196,10 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="E256" s="30">
-        <v>1</v>
-      </c>
-      <c r="F256" s="27">
+      <c r="E256" s="26">
+        <v>1</v>
+      </c>
+      <c r="F256" s="25">
         <v>252</v>
       </c>
       <c r="G256">
@@ -36286,10 +36286,10 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="E257" s="30">
-        <v>1</v>
-      </c>
-      <c r="F257" s="27">
+      <c r="E257" s="26">
+        <v>1</v>
+      </c>
+      <c r="F257" s="25">
         <v>253</v>
       </c>
       <c r="G257">
@@ -36376,10 +36376,10 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="E258" s="30">
-        <v>1</v>
-      </c>
-      <c r="F258" s="27">
+      <c r="E258" s="26">
+        <v>1</v>
+      </c>
+      <c r="F258" s="25">
         <v>254</v>
       </c>
       <c r="G258">
@@ -36466,10 +36466,10 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="E259" s="30">
-        <v>1</v>
-      </c>
-      <c r="F259" s="27">
+      <c r="E259" s="26">
+        <v>1</v>
+      </c>
+      <c r="F259" s="25">
         <v>255</v>
       </c>
       <c r="G259">
@@ -36556,10 +36556,10 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="E260" s="30">
-        <v>1</v>
-      </c>
-      <c r="F260" s="27">
+      <c r="E260" s="26">
+        <v>1</v>
+      </c>
+      <c r="F260" s="25">
         <v>256</v>
       </c>
       <c r="G260">
@@ -36646,10 +36646,10 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="E261" s="30">
-        <v>1</v>
-      </c>
-      <c r="F261" s="27">
+      <c r="E261" s="26">
+        <v>1</v>
+      </c>
+      <c r="F261" s="25">
         <v>257</v>
       </c>
       <c r="G261">
@@ -36736,10 +36736,10 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="E262" s="30">
-        <v>1</v>
-      </c>
-      <c r="F262" s="27">
+      <c r="E262" s="26">
+        <v>1</v>
+      </c>
+      <c r="F262" s="25">
         <v>258</v>
       </c>
       <c r="G262">
@@ -36826,10 +36826,10 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="E263" s="30">
-        <v>1</v>
-      </c>
-      <c r="F263" s="27">
+      <c r="E263" s="26">
+        <v>1</v>
+      </c>
+      <c r="F263" s="25">
         <v>259</v>
       </c>
       <c r="G263">
@@ -36916,10 +36916,10 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="E264" s="30">
-        <v>1</v>
-      </c>
-      <c r="F264" s="27">
+      <c r="E264" s="26">
+        <v>1</v>
+      </c>
+      <c r="F264" s="25">
         <v>260</v>
       </c>
       <c r="G264">
@@ -37006,10 +37006,10 @@
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="E265" s="30">
-        <v>1</v>
-      </c>
-      <c r="F265" s="27">
+      <c r="E265" s="26">
+        <v>1</v>
+      </c>
+      <c r="F265" s="25">
         <v>261</v>
       </c>
       <c r="G265">
@@ -37096,10 +37096,10 @@
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="E266" s="30">
-        <v>1</v>
-      </c>
-      <c r="F266" s="27">
+      <c r="E266" s="26">
+        <v>1</v>
+      </c>
+      <c r="F266" s="25">
         <v>262</v>
       </c>
       <c r="G266">
@@ -37186,10 +37186,10 @@
         <f t="shared" ref="D267:D330" si="4">D262+1</f>
         <v>53</v>
       </c>
-      <c r="E267" s="30">
-        <v>1</v>
-      </c>
-      <c r="F267" s="27">
+      <c r="E267" s="26">
+        <v>1</v>
+      </c>
+      <c r="F267" s="25">
         <v>263</v>
       </c>
       <c r="G267">
@@ -37276,10 +37276,10 @@
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="E268" s="30">
-        <v>1</v>
-      </c>
-      <c r="F268" s="27">
+      <c r="E268" s="26">
+        <v>1</v>
+      </c>
+      <c r="F268" s="25">
         <v>264</v>
       </c>
       <c r="G268">
@@ -37366,10 +37366,10 @@
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="E269" s="30">
-        <v>1</v>
-      </c>
-      <c r="F269" s="27">
+      <c r="E269" s="26">
+        <v>1</v>
+      </c>
+      <c r="F269" s="25">
         <v>265</v>
       </c>
       <c r="G269">
@@ -37456,10 +37456,10 @@
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="E270" s="30">
-        <v>1</v>
-      </c>
-      <c r="F270" s="27">
+      <c r="E270" s="26">
+        <v>1</v>
+      </c>
+      <c r="F270" s="25">
         <v>266</v>
       </c>
       <c r="G270">
@@ -37546,10 +37546,10 @@
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="E271" s="30">
-        <v>1</v>
-      </c>
-      <c r="F271" s="27">
+      <c r="E271" s="26">
+        <v>1</v>
+      </c>
+      <c r="F271" s="25">
         <v>267</v>
       </c>
       <c r="G271">
@@ -37636,10 +37636,10 @@
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="E272" s="30">
-        <v>1</v>
-      </c>
-      <c r="F272" s="27">
+      <c r="E272" s="26">
+        <v>1</v>
+      </c>
+      <c r="F272" s="25">
         <v>268</v>
       </c>
       <c r="G272">
@@ -37726,10 +37726,10 @@
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="E273" s="30">
-        <v>1</v>
-      </c>
-      <c r="F273" s="27">
+      <c r="E273" s="26">
+        <v>1</v>
+      </c>
+      <c r="F273" s="25">
         <v>269</v>
       </c>
       <c r="G273">
@@ -37816,10 +37816,10 @@
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="E274" s="30">
-        <v>1</v>
-      </c>
-      <c r="F274" s="27">
+      <c r="E274" s="26">
+        <v>1</v>
+      </c>
+      <c r="F274" s="25">
         <v>270</v>
       </c>
       <c r="G274">
@@ -37906,10 +37906,10 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="E275" s="30">
-        <v>1</v>
-      </c>
-      <c r="F275" s="27">
+      <c r="E275" s="26">
+        <v>1</v>
+      </c>
+      <c r="F275" s="25">
         <v>271</v>
       </c>
       <c r="G275">
@@ -37996,10 +37996,10 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="E276" s="30">
-        <v>1</v>
-      </c>
-      <c r="F276" s="27">
+      <c r="E276" s="26">
+        <v>1</v>
+      </c>
+      <c r="F276" s="25">
         <v>272</v>
       </c>
       <c r="G276">
@@ -38086,10 +38086,10 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="E277" s="30">
-        <v>1</v>
-      </c>
-      <c r="F277" s="27">
+      <c r="E277" s="26">
+        <v>1</v>
+      </c>
+      <c r="F277" s="25">
         <v>273</v>
       </c>
       <c r="G277">
@@ -38176,10 +38176,10 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="E278" s="30">
-        <v>1</v>
-      </c>
-      <c r="F278" s="27">
+      <c r="E278" s="26">
+        <v>1</v>
+      </c>
+      <c r="F278" s="25">
         <v>274</v>
       </c>
       <c r="G278">
@@ -38266,10 +38266,10 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="E279" s="30">
-        <v>1</v>
-      </c>
-      <c r="F279" s="27">
+      <c r="E279" s="26">
+        <v>1</v>
+      </c>
+      <c r="F279" s="25">
         <v>275</v>
       </c>
       <c r="G279">
@@ -38356,10 +38356,10 @@
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="E280" s="30">
-        <v>1</v>
-      </c>
-      <c r="F280" s="27">
+      <c r="E280" s="26">
+        <v>1</v>
+      </c>
+      <c r="F280" s="25">
         <v>276</v>
       </c>
       <c r="G280">
@@ -38446,10 +38446,10 @@
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="E281" s="30">
-        <v>1</v>
-      </c>
-      <c r="F281" s="27">
+      <c r="E281" s="26">
+        <v>1</v>
+      </c>
+      <c r="F281" s="25">
         <v>277</v>
       </c>
       <c r="G281">
@@ -38536,10 +38536,10 @@
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="E282" s="30">
-        <v>1</v>
-      </c>
-      <c r="F282" s="27">
+      <c r="E282" s="26">
+        <v>1</v>
+      </c>
+      <c r="F282" s="25">
         <v>278</v>
       </c>
       <c r="G282">
@@ -38626,10 +38626,10 @@
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="E283" s="30">
-        <v>1</v>
-      </c>
-      <c r="F283" s="27">
+      <c r="E283" s="26">
+        <v>1</v>
+      </c>
+      <c r="F283" s="25">
         <v>279</v>
       </c>
       <c r="G283">
@@ -38716,10 +38716,10 @@
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="E284" s="30">
-        <v>1</v>
-      </c>
-      <c r="F284" s="27">
+      <c r="E284" s="26">
+        <v>1</v>
+      </c>
+      <c r="F284" s="25">
         <v>280</v>
       </c>
       <c r="G284">
@@ -38806,10 +38806,10 @@
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="E285" s="30">
-        <v>1</v>
-      </c>
-      <c r="F285" s="27">
+      <c r="E285" s="26">
+        <v>1</v>
+      </c>
+      <c r="F285" s="25">
         <v>281</v>
       </c>
       <c r="G285">
@@ -38896,10 +38896,10 @@
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="E286" s="30">
-        <v>1</v>
-      </c>
-      <c r="F286" s="27">
+      <c r="E286" s="26">
+        <v>1</v>
+      </c>
+      <c r="F286" s="25">
         <v>282</v>
       </c>
       <c r="G286">
@@ -38986,10 +38986,10 @@
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="E287" s="30">
-        <v>1</v>
-      </c>
-      <c r="F287" s="27">
+      <c r="E287" s="26">
+        <v>1</v>
+      </c>
+      <c r="F287" s="25">
         <v>283</v>
       </c>
       <c r="G287">
@@ -39076,10 +39076,10 @@
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="E288" s="30">
-        <v>1</v>
-      </c>
-      <c r="F288" s="27">
+      <c r="E288" s="26">
+        <v>1</v>
+      </c>
+      <c r="F288" s="25">
         <v>284</v>
       </c>
       <c r="G288">
@@ -39166,10 +39166,10 @@
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="E289" s="30">
-        <v>1</v>
-      </c>
-      <c r="F289" s="27">
+      <c r="E289" s="26">
+        <v>1</v>
+      </c>
+      <c r="F289" s="25">
         <v>285</v>
       </c>
       <c r="G289">
@@ -39256,10 +39256,10 @@
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="E290" s="30">
-        <v>1</v>
-      </c>
-      <c r="F290" s="27">
+      <c r="E290" s="26">
+        <v>1</v>
+      </c>
+      <c r="F290" s="25">
         <v>286</v>
       </c>
       <c r="G290">
@@ -39346,10 +39346,10 @@
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="E291" s="30">
-        <v>1</v>
-      </c>
-      <c r="F291" s="27">
+      <c r="E291" s="26">
+        <v>1</v>
+      </c>
+      <c r="F291" s="25">
         <v>287</v>
       </c>
       <c r="G291">
@@ -39436,10 +39436,10 @@
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="E292" s="30">
-        <v>1</v>
-      </c>
-      <c r="F292" s="27">
+      <c r="E292" s="26">
+        <v>1</v>
+      </c>
+      <c r="F292" s="25">
         <v>288</v>
       </c>
       <c r="G292">
@@ -39526,10 +39526,10 @@
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="E293" s="30">
-        <v>1</v>
-      </c>
-      <c r="F293" s="27">
+      <c r="E293" s="26">
+        <v>1</v>
+      </c>
+      <c r="F293" s="25">
         <v>289</v>
       </c>
       <c r="G293">
@@ -39616,10 +39616,10 @@
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="E294" s="30">
-        <v>1</v>
-      </c>
-      <c r="F294" s="27">
+      <c r="E294" s="26">
+        <v>1</v>
+      </c>
+      <c r="F294" s="25">
         <v>290</v>
       </c>
       <c r="G294">
@@ -39706,10 +39706,10 @@
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="E295" s="30">
-        <v>1</v>
-      </c>
-      <c r="F295" s="27">
+      <c r="E295" s="26">
+        <v>1</v>
+      </c>
+      <c r="F295" s="25">
         <v>291</v>
       </c>
       <c r="G295">
@@ -39796,10 +39796,10 @@
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="E296" s="30">
-        <v>1</v>
-      </c>
-      <c r="F296" s="27">
+      <c r="E296" s="26">
+        <v>1</v>
+      </c>
+      <c r="F296" s="25">
         <v>292</v>
       </c>
       <c r="G296">
@@ -39886,10 +39886,10 @@
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="E297" s="30">
-        <v>1</v>
-      </c>
-      <c r="F297" s="27">
+      <c r="E297" s="26">
+        <v>1</v>
+      </c>
+      <c r="F297" s="25">
         <v>293</v>
       </c>
       <c r="G297">
@@ -39976,10 +39976,10 @@
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="E298" s="30">
-        <v>1</v>
-      </c>
-      <c r="F298" s="27">
+      <c r="E298" s="26">
+        <v>1</v>
+      </c>
+      <c r="F298" s="25">
         <v>294</v>
       </c>
       <c r="G298">
@@ -40066,10 +40066,10 @@
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="E299" s="30">
-        <v>1</v>
-      </c>
-      <c r="F299" s="27">
+      <c r="E299" s="26">
+        <v>1</v>
+      </c>
+      <c r="F299" s="25">
         <v>295</v>
       </c>
       <c r="G299">
@@ -40156,10 +40156,10 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="E300" s="30">
-        <v>1</v>
-      </c>
-      <c r="F300" s="27">
+      <c r="E300" s="26">
+        <v>1</v>
+      </c>
+      <c r="F300" s="25">
         <v>296</v>
       </c>
       <c r="G300">
@@ -40246,10 +40246,10 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="E301" s="30">
-        <v>1</v>
-      </c>
-      <c r="F301" s="27">
+      <c r="E301" s="26">
+        <v>1</v>
+      </c>
+      <c r="F301" s="25">
         <v>297</v>
       </c>
       <c r="G301">
@@ -40336,10 +40336,10 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="E302" s="30">
-        <v>1</v>
-      </c>
-      <c r="F302" s="27">
+      <c r="E302" s="26">
+        <v>1</v>
+      </c>
+      <c r="F302" s="25">
         <v>298</v>
       </c>
       <c r="G302">
@@ -40426,10 +40426,10 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="E303" s="30">
-        <v>1</v>
-      </c>
-      <c r="F303" s="27">
+      <c r="E303" s="26">
+        <v>1</v>
+      </c>
+      <c r="F303" s="25">
         <v>299</v>
       </c>
       <c r="G303">
@@ -40516,10 +40516,10 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="E304" s="30">
-        <v>1</v>
-      </c>
-      <c r="F304" s="27">
+      <c r="E304" s="26">
+        <v>1</v>
+      </c>
+      <c r="F304" s="25">
         <v>300</v>
       </c>
       <c r="G304">
@@ -40606,10 +40606,10 @@
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="E305" s="30">
-        <v>1</v>
-      </c>
-      <c r="F305" s="27">
+      <c r="E305" s="26">
+        <v>1</v>
+      </c>
+      <c r="F305" s="25">
         <v>301</v>
       </c>
       <c r="G305">
@@ -40696,10 +40696,10 @@
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="E306" s="30">
-        <v>1</v>
-      </c>
-      <c r="F306" s="27">
+      <c r="E306" s="26">
+        <v>1</v>
+      </c>
+      <c r="F306" s="25">
         <v>302</v>
       </c>
       <c r="G306">
@@ -40786,10 +40786,10 @@
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="E307" s="30">
-        <v>1</v>
-      </c>
-      <c r="F307" s="27">
+      <c r="E307" s="26">
+        <v>1</v>
+      </c>
+      <c r="F307" s="25">
         <v>303</v>
       </c>
       <c r="G307">
@@ -40876,10 +40876,10 @@
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="E308" s="30">
-        <v>1</v>
-      </c>
-      <c r="F308" s="27">
+      <c r="E308" s="26">
+        <v>1</v>
+      </c>
+      <c r="F308" s="25">
         <v>304</v>
       </c>
       <c r="G308">
@@ -40966,10 +40966,10 @@
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="E309" s="30">
-        <v>1</v>
-      </c>
-      <c r="F309" s="27">
+      <c r="E309" s="26">
+        <v>1</v>
+      </c>
+      <c r="F309" s="25">
         <v>305</v>
       </c>
       <c r="G309">
@@ -41056,10 +41056,10 @@
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="E310" s="30">
-        <v>1</v>
-      </c>
-      <c r="F310" s="27">
+      <c r="E310" s="26">
+        <v>1</v>
+      </c>
+      <c r="F310" s="25">
         <v>306</v>
       </c>
       <c r="G310">
@@ -41146,10 +41146,10 @@
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="E311" s="30">
-        <v>1</v>
-      </c>
-      <c r="F311" s="27">
+      <c r="E311" s="26">
+        <v>1</v>
+      </c>
+      <c r="F311" s="25">
         <v>307</v>
       </c>
       <c r="G311">
@@ -41236,10 +41236,10 @@
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="E312" s="30">
-        <v>1</v>
-      </c>
-      <c r="F312" s="27">
+      <c r="E312" s="26">
+        <v>1</v>
+      </c>
+      <c r="F312" s="25">
         <v>308</v>
       </c>
       <c r="G312">
@@ -41326,10 +41326,10 @@
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="E313" s="30">
-        <v>1</v>
-      </c>
-      <c r="F313" s="27">
+      <c r="E313" s="26">
+        <v>1</v>
+      </c>
+      <c r="F313" s="25">
         <v>309</v>
       </c>
       <c r="G313">
@@ -41416,10 +41416,10 @@
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="E314" s="30">
-        <v>1</v>
-      </c>
-      <c r="F314" s="27">
+      <c r="E314" s="26">
+        <v>1</v>
+      </c>
+      <c r="F314" s="25">
         <v>310</v>
       </c>
       <c r="G314">
@@ -41506,10 +41506,10 @@
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="E315" s="30">
-        <v>1</v>
-      </c>
-      <c r="F315" s="27">
+      <c r="E315" s="26">
+        <v>1</v>
+      </c>
+      <c r="F315" s="25">
         <v>311</v>
       </c>
       <c r="G315">
@@ -41596,10 +41596,10 @@
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="E316" s="30">
-        <v>1</v>
-      </c>
-      <c r="F316" s="27">
+      <c r="E316" s="26">
+        <v>1</v>
+      </c>
+      <c r="F316" s="25">
         <v>312</v>
       </c>
       <c r="G316">
@@ -41686,10 +41686,10 @@
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="E317" s="30">
-        <v>1</v>
-      </c>
-      <c r="F317" s="27">
+      <c r="E317" s="26">
+        <v>1</v>
+      </c>
+      <c r="F317" s="25">
         <v>313</v>
       </c>
       <c r="G317">
@@ -41776,10 +41776,10 @@
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="E318" s="30">
-        <v>1</v>
-      </c>
-      <c r="F318" s="27">
+      <c r="E318" s="26">
+        <v>1</v>
+      </c>
+      <c r="F318" s="25">
         <v>314</v>
       </c>
       <c r="G318">
@@ -41866,10 +41866,10 @@
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="E319" s="30">
-        <v>1</v>
-      </c>
-      <c r="F319" s="27">
+      <c r="E319" s="26">
+        <v>1</v>
+      </c>
+      <c r="F319" s="25">
         <v>315</v>
       </c>
       <c r="G319">
@@ -41956,10 +41956,10 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="E320" s="30">
-        <v>1</v>
-      </c>
-      <c r="F320" s="27">
+      <c r="E320" s="26">
+        <v>1</v>
+      </c>
+      <c r="F320" s="25">
         <v>316</v>
       </c>
       <c r="G320">
@@ -42046,10 +42046,10 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="E321" s="30">
-        <v>1</v>
-      </c>
-      <c r="F321" s="27">
+      <c r="E321" s="26">
+        <v>1</v>
+      </c>
+      <c r="F321" s="25">
         <v>317</v>
       </c>
       <c r="G321">
@@ -42136,10 +42136,10 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="E322" s="30">
-        <v>1</v>
-      </c>
-      <c r="F322" s="27">
+      <c r="E322" s="26">
+        <v>1</v>
+      </c>
+      <c r="F322" s="25">
         <v>318</v>
       </c>
       <c r="G322">
@@ -42226,10 +42226,10 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="E323" s="30">
-        <v>1</v>
-      </c>
-      <c r="F323" s="27">
+      <c r="E323" s="26">
+        <v>1</v>
+      </c>
+      <c r="F323" s="25">
         <v>319</v>
       </c>
       <c r="G323">
@@ -42316,10 +42316,10 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="E324" s="30">
-        <v>1</v>
-      </c>
-      <c r="F324" s="27">
+      <c r="E324" s="26">
+        <v>1</v>
+      </c>
+      <c r="F324" s="25">
         <v>320</v>
       </c>
       <c r="G324">
@@ -42406,10 +42406,10 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="E325" s="30">
-        <v>1</v>
-      </c>
-      <c r="F325" s="27">
+      <c r="E325" s="26">
+        <v>1</v>
+      </c>
+      <c r="F325" s="25">
         <v>321</v>
       </c>
       <c r="G325">
@@ -42496,10 +42496,10 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="E326" s="30">
-        <v>1</v>
-      </c>
-      <c r="F326" s="27">
+      <c r="E326" s="26">
+        <v>1</v>
+      </c>
+      <c r="F326" s="25">
         <v>322</v>
       </c>
       <c r="G326">
@@ -42586,10 +42586,10 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="E327" s="30">
-        <v>1</v>
-      </c>
-      <c r="F327" s="27">
+      <c r="E327" s="26">
+        <v>1</v>
+      </c>
+      <c r="F327" s="25">
         <v>323</v>
       </c>
       <c r="G327">
@@ -42676,10 +42676,10 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="E328" s="30">
-        <v>1</v>
-      </c>
-      <c r="F328" s="27">
+      <c r="E328" s="26">
+        <v>1</v>
+      </c>
+      <c r="F328" s="25">
         <v>324</v>
       </c>
       <c r="G328">
@@ -42766,10 +42766,10 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="E329" s="30">
-        <v>1</v>
-      </c>
-      <c r="F329" s="27">
+      <c r="E329" s="26">
+        <v>1</v>
+      </c>
+      <c r="F329" s="25">
         <v>325</v>
       </c>
       <c r="G329">
@@ -42856,10 +42856,10 @@
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="E330" s="30">
-        <v>1</v>
-      </c>
-      <c r="F330" s="27">
+      <c r="E330" s="26">
+        <v>1</v>
+      </c>
+      <c r="F330" s="25">
         <v>326</v>
       </c>
       <c r="G330">
@@ -42946,10 +42946,10 @@
         <f t="shared" ref="D331:D394" si="5">D326+1</f>
         <v>66</v>
       </c>
-      <c r="E331" s="30">
-        <v>1</v>
-      </c>
-      <c r="F331" s="27">
+      <c r="E331" s="26">
+        <v>1</v>
+      </c>
+      <c r="F331" s="25">
         <v>327</v>
       </c>
       <c r="G331">
@@ -43036,10 +43036,10 @@
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="E332" s="30">
-        <v>1</v>
-      </c>
-      <c r="F332" s="27">
+      <c r="E332" s="26">
+        <v>1</v>
+      </c>
+      <c r="F332" s="25">
         <v>328</v>
       </c>
       <c r="G332">
@@ -43126,10 +43126,10 @@
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="E333" s="30">
-        <v>1</v>
-      </c>
-      <c r="F333" s="27">
+      <c r="E333" s="26">
+        <v>1</v>
+      </c>
+      <c r="F333" s="25">
         <v>329</v>
       </c>
       <c r="G333">
@@ -43216,10 +43216,10 @@
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="E334" s="30">
-        <v>1</v>
-      </c>
-      <c r="F334" s="27">
+      <c r="E334" s="26">
+        <v>1</v>
+      </c>
+      <c r="F334" s="25">
         <v>330</v>
       </c>
       <c r="G334">
@@ -43306,10 +43306,10 @@
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="E335" s="30">
-        <v>1</v>
-      </c>
-      <c r="F335" s="27">
+      <c r="E335" s="26">
+        <v>1</v>
+      </c>
+      <c r="F335" s="25">
         <v>331</v>
       </c>
       <c r="G335">
@@ -43396,10 +43396,10 @@
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="E336" s="30">
-        <v>1</v>
-      </c>
-      <c r="F336" s="27">
+      <c r="E336" s="26">
+        <v>1</v>
+      </c>
+      <c r="F336" s="25">
         <v>332</v>
       </c>
       <c r="G336">
@@ -43486,10 +43486,10 @@
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="E337" s="30">
-        <v>1</v>
-      </c>
-      <c r="F337" s="27">
+      <c r="E337" s="26">
+        <v>1</v>
+      </c>
+      <c r="F337" s="25">
         <v>333</v>
       </c>
       <c r="G337">
@@ -43576,10 +43576,10 @@
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="E338" s="30">
-        <v>1</v>
-      </c>
-      <c r="F338" s="27">
+      <c r="E338" s="26">
+        <v>1</v>
+      </c>
+      <c r="F338" s="25">
         <v>334</v>
       </c>
       <c r="G338">
@@ -43666,10 +43666,10 @@
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="E339" s="30">
-        <v>1</v>
-      </c>
-      <c r="F339" s="27">
+      <c r="E339" s="26">
+        <v>1</v>
+      </c>
+      <c r="F339" s="25">
         <v>335</v>
       </c>
       <c r="G339">
@@ -43756,10 +43756,10 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="E340" s="30">
-        <v>1</v>
-      </c>
-      <c r="F340" s="27">
+      <c r="E340" s="26">
+        <v>1</v>
+      </c>
+      <c r="F340" s="25">
         <v>336</v>
       </c>
       <c r="G340">
@@ -43846,10 +43846,10 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="E341" s="30">
-        <v>1</v>
-      </c>
-      <c r="F341" s="27">
+      <c r="E341" s="26">
+        <v>1</v>
+      </c>
+      <c r="F341" s="25">
         <v>337</v>
       </c>
       <c r="G341">
@@ -43936,10 +43936,10 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="E342" s="30">
-        <v>1</v>
-      </c>
-      <c r="F342" s="27">
+      <c r="E342" s="26">
+        <v>1</v>
+      </c>
+      <c r="F342" s="25">
         <v>338</v>
       </c>
       <c r="G342">
@@ -44026,10 +44026,10 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="E343" s="30">
-        <v>1</v>
-      </c>
-      <c r="F343" s="27">
+      <c r="E343" s="26">
+        <v>1</v>
+      </c>
+      <c r="F343" s="25">
         <v>339</v>
       </c>
       <c r="G343">
@@ -44116,10 +44116,10 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="E344" s="30">
-        <v>1</v>
-      </c>
-      <c r="F344" s="27">
+      <c r="E344" s="26">
+        <v>1</v>
+      </c>
+      <c r="F344" s="25">
         <v>340</v>
       </c>
       <c r="G344">
@@ -44206,10 +44206,10 @@
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="E345" s="30">
-        <v>1</v>
-      </c>
-      <c r="F345" s="27">
+      <c r="E345" s="26">
+        <v>1</v>
+      </c>
+      <c r="F345" s="25">
         <v>341</v>
       </c>
       <c r="G345">
@@ -44296,10 +44296,10 @@
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="E346" s="30">
-        <v>1</v>
-      </c>
-      <c r="F346" s="27">
+      <c r="E346" s="26">
+        <v>1</v>
+      </c>
+      <c r="F346" s="25">
         <v>342</v>
       </c>
       <c r="G346">
@@ -44386,10 +44386,10 @@
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="E347" s="30">
-        <v>1</v>
-      </c>
-      <c r="F347" s="27">
+      <c r="E347" s="26">
+        <v>1</v>
+      </c>
+      <c r="F347" s="25">
         <v>343</v>
       </c>
       <c r="G347">
@@ -44476,10 +44476,10 @@
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="E348" s="30">
-        <v>1</v>
-      </c>
-      <c r="F348" s="27">
+      <c r="E348" s="26">
+        <v>1</v>
+      </c>
+      <c r="F348" s="25">
         <v>344</v>
       </c>
       <c r="G348">
@@ -44566,10 +44566,10 @@
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="E349" s="30">
-        <v>1</v>
-      </c>
-      <c r="F349" s="27">
+      <c r="E349" s="26">
+        <v>1</v>
+      </c>
+      <c r="F349" s="25">
         <v>345</v>
       </c>
       <c r="G349">
@@ -44656,10 +44656,10 @@
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="E350" s="30">
-        <v>1</v>
-      </c>
-      <c r="F350" s="27">
+      <c r="E350" s="26">
+        <v>1</v>
+      </c>
+      <c r="F350" s="25">
         <v>346</v>
       </c>
       <c r="G350">
@@ -44746,10 +44746,10 @@
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="E351" s="30">
-        <v>1</v>
-      </c>
-      <c r="F351" s="27">
+      <c r="E351" s="26">
+        <v>1</v>
+      </c>
+      <c r="F351" s="25">
         <v>347</v>
       </c>
       <c r="G351">
@@ -44836,10 +44836,10 @@
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="E352" s="30">
-        <v>1</v>
-      </c>
-      <c r="F352" s="27">
+      <c r="E352" s="26">
+        <v>1</v>
+      </c>
+      <c r="F352" s="25">
         <v>348</v>
       </c>
       <c r="G352">
@@ -44926,10 +44926,10 @@
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="E353" s="30">
-        <v>1</v>
-      </c>
-      <c r="F353" s="27">
+      <c r="E353" s="26">
+        <v>1</v>
+      </c>
+      <c r="F353" s="25">
         <v>349</v>
       </c>
       <c r="G353">
@@ -45016,10 +45016,10 @@
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="E354" s="30">
-        <v>1</v>
-      </c>
-      <c r="F354" s="27">
+      <c r="E354" s="26">
+        <v>1</v>
+      </c>
+      <c r="F354" s="25">
         <v>350</v>
       </c>
       <c r="G354">
@@ -45106,10 +45106,10 @@
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="E355" s="30">
-        <v>1</v>
-      </c>
-      <c r="F355" s="27">
+      <c r="E355" s="26">
+        <v>1</v>
+      </c>
+      <c r="F355" s="25">
         <v>351</v>
       </c>
       <c r="G355">
@@ -45196,10 +45196,10 @@
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="E356" s="30">
-        <v>1</v>
-      </c>
-      <c r="F356" s="27">
+      <c r="E356" s="26">
+        <v>1</v>
+      </c>
+      <c r="F356" s="25">
         <v>352</v>
       </c>
       <c r="G356">
@@ -45286,10 +45286,10 @@
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="E357" s="30">
-        <v>1</v>
-      </c>
-      <c r="F357" s="27">
+      <c r="E357" s="26">
+        <v>1</v>
+      </c>
+      <c r="F357" s="25">
         <v>353</v>
       </c>
       <c r="G357">
@@ -45376,10 +45376,10 @@
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="E358" s="30">
-        <v>1</v>
-      </c>
-      <c r="F358" s="27">
+      <c r="E358" s="26">
+        <v>1</v>
+      </c>
+      <c r="F358" s="25">
         <v>354</v>
       </c>
       <c r="G358">
@@ -45466,10 +45466,10 @@
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="E359" s="30">
-        <v>1</v>
-      </c>
-      <c r="F359" s="27">
+      <c r="E359" s="26">
+        <v>1</v>
+      </c>
+      <c r="F359" s="25">
         <v>355</v>
       </c>
       <c r="G359">
@@ -45556,10 +45556,10 @@
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="E360" s="30">
-        <v>1</v>
-      </c>
-      <c r="F360" s="27">
+      <c r="E360" s="26">
+        <v>1</v>
+      </c>
+      <c r="F360" s="25">
         <v>356</v>
       </c>
       <c r="G360">
@@ -45646,10 +45646,10 @@
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="E361" s="30">
-        <v>1</v>
-      </c>
-      <c r="F361" s="27">
+      <c r="E361" s="26">
+        <v>1</v>
+      </c>
+      <c r="F361" s="25">
         <v>357</v>
       </c>
       <c r="G361">
@@ -45736,10 +45736,10 @@
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="E362" s="30">
-        <v>1</v>
-      </c>
-      <c r="F362" s="27">
+      <c r="E362" s="26">
+        <v>1</v>
+      </c>
+      <c r="F362" s="25">
         <v>358</v>
       </c>
       <c r="G362">
@@ -45826,10 +45826,10 @@
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="E363" s="30">
-        <v>1</v>
-      </c>
-      <c r="F363" s="27">
+      <c r="E363" s="26">
+        <v>1</v>
+      </c>
+      <c r="F363" s="25">
         <v>359</v>
       </c>
       <c r="G363">
@@ -45916,10 +45916,10 @@
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="E364" s="30">
-        <v>1</v>
-      </c>
-      <c r="F364" s="27">
+      <c r="E364" s="26">
+        <v>1</v>
+      </c>
+      <c r="F364" s="25">
         <v>360</v>
       </c>
       <c r="G364">
@@ -46006,10 +46006,10 @@
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="E365" s="30">
-        <v>1</v>
-      </c>
-      <c r="F365" s="27">
+      <c r="E365" s="26">
+        <v>1</v>
+      </c>
+      <c r="F365" s="25">
         <v>361</v>
       </c>
       <c r="G365">
@@ -46096,10 +46096,10 @@
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="E366" s="30">
-        <v>1</v>
-      </c>
-      <c r="F366" s="27">
+      <c r="E366" s="26">
+        <v>1</v>
+      </c>
+      <c r="F366" s="25">
         <v>362</v>
       </c>
       <c r="G366">
@@ -46186,10 +46186,10 @@
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="E367" s="30">
-        <v>1</v>
-      </c>
-      <c r="F367" s="27">
+      <c r="E367" s="26">
+        <v>1</v>
+      </c>
+      <c r="F367" s="25">
         <v>363</v>
       </c>
       <c r="G367">
@@ -46276,10 +46276,10 @@
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="E368" s="30">
-        <v>1</v>
-      </c>
-      <c r="F368" s="27">
+      <c r="E368" s="26">
+        <v>1</v>
+      </c>
+      <c r="F368" s="25">
         <v>364</v>
       </c>
       <c r="G368">
@@ -46366,10 +46366,10 @@
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="E369" s="30">
-        <v>1</v>
-      </c>
-      <c r="F369" s="27">
+      <c r="E369" s="26">
+        <v>1</v>
+      </c>
+      <c r="F369" s="25">
         <v>365</v>
       </c>
       <c r="G369">
@@ -46456,10 +46456,10 @@
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="E370" s="30">
-        <v>1</v>
-      </c>
-      <c r="F370" s="27">
+      <c r="E370" s="26">
+        <v>1</v>
+      </c>
+      <c r="F370" s="25">
         <v>366</v>
       </c>
       <c r="G370">
@@ -46546,10 +46546,10 @@
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="E371" s="30">
-        <v>1</v>
-      </c>
-      <c r="F371" s="27">
+      <c r="E371" s="26">
+        <v>1</v>
+      </c>
+      <c r="F371" s="25">
         <v>367</v>
       </c>
       <c r="G371">
@@ -46636,10 +46636,10 @@
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="E372" s="30">
-        <v>1</v>
-      </c>
-      <c r="F372" s="27">
+      <c r="E372" s="26">
+        <v>1</v>
+      </c>
+      <c r="F372" s="25">
         <v>368</v>
       </c>
       <c r="G372">
@@ -46726,10 +46726,10 @@
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="E373" s="30">
-        <v>1</v>
-      </c>
-      <c r="F373" s="27">
+      <c r="E373" s="26">
+        <v>1</v>
+      </c>
+      <c r="F373" s="25">
         <v>369</v>
       </c>
       <c r="G373">
@@ -46816,10 +46816,10 @@
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="E374" s="30">
-        <v>1</v>
-      </c>
-      <c r="F374" s="27">
+      <c r="E374" s="26">
+        <v>1</v>
+      </c>
+      <c r="F374" s="25">
         <v>370</v>
       </c>
       <c r="G374">
@@ -46906,10 +46906,10 @@
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="E375" s="30">
-        <v>1</v>
-      </c>
-      <c r="F375" s="27">
+      <c r="E375" s="26">
+        <v>1</v>
+      </c>
+      <c r="F375" s="25">
         <v>371</v>
       </c>
       <c r="G375">
@@ -46996,10 +46996,10 @@
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="E376" s="30">
-        <v>1</v>
-      </c>
-      <c r="F376" s="27">
+      <c r="E376" s="26">
+        <v>1</v>
+      </c>
+      <c r="F376" s="25">
         <v>372</v>
       </c>
       <c r="G376">
@@ -47086,10 +47086,10 @@
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="E377" s="30">
-        <v>1</v>
-      </c>
-      <c r="F377" s="27">
+      <c r="E377" s="26">
+        <v>1</v>
+      </c>
+      <c r="F377" s="25">
         <v>373</v>
       </c>
       <c r="G377">
@@ -47176,10 +47176,10 @@
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="E378" s="30">
-        <v>1</v>
-      </c>
-      <c r="F378" s="27">
+      <c r="E378" s="26">
+        <v>1</v>
+      </c>
+      <c r="F378" s="25">
         <v>374</v>
       </c>
       <c r="G378">
@@ -47266,10 +47266,10 @@
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="E379" s="30">
-        <v>1</v>
-      </c>
-      <c r="F379" s="27">
+      <c r="E379" s="26">
+        <v>1</v>
+      </c>
+      <c r="F379" s="25">
         <v>375</v>
       </c>
       <c r="G379">
@@ -47356,10 +47356,10 @@
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="E380" s="30">
-        <v>1</v>
-      </c>
-      <c r="F380" s="27">
+      <c r="E380" s="26">
+        <v>1</v>
+      </c>
+      <c r="F380" s="25">
         <v>376</v>
       </c>
       <c r="G380">
@@ -47446,10 +47446,10 @@
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="E381" s="30">
-        <v>1</v>
-      </c>
-      <c r="F381" s="27">
+      <c r="E381" s="26">
+        <v>1</v>
+      </c>
+      <c r="F381" s="25">
         <v>377</v>
       </c>
       <c r="G381">
@@ -47536,10 +47536,10 @@
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="E382" s="30">
-        <v>1</v>
-      </c>
-      <c r="F382" s="27">
+      <c r="E382" s="26">
+        <v>1</v>
+      </c>
+      <c r="F382" s="25">
         <v>378</v>
       </c>
       <c r="G382">
@@ -47626,10 +47626,10 @@
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="E383" s="30">
-        <v>1</v>
-      </c>
-      <c r="F383" s="27">
+      <c r="E383" s="26">
+        <v>1</v>
+      </c>
+      <c r="F383" s="25">
         <v>379</v>
       </c>
       <c r="G383">
@@ -47716,10 +47716,10 @@
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="E384" s="30">
-        <v>1</v>
-      </c>
-      <c r="F384" s="27">
+      <c r="E384" s="26">
+        <v>1</v>
+      </c>
+      <c r="F384" s="25">
         <v>380</v>
       </c>
       <c r="G384">
@@ -47806,10 +47806,10 @@
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="E385" s="30">
-        <v>1</v>
-      </c>
-      <c r="F385" s="27">
+      <c r="E385" s="26">
+        <v>1</v>
+      </c>
+      <c r="F385" s="25">
         <v>381</v>
       </c>
       <c r="G385">
@@ -47896,10 +47896,10 @@
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="E386" s="30">
-        <v>1</v>
-      </c>
-      <c r="F386" s="27">
+      <c r="E386" s="26">
+        <v>1</v>
+      </c>
+      <c r="F386" s="25">
         <v>382</v>
       </c>
       <c r="G386">
@@ -47986,10 +47986,10 @@
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="E387" s="30">
-        <v>1</v>
-      </c>
-      <c r="F387" s="27">
+      <c r="E387" s="26">
+        <v>1</v>
+      </c>
+      <c r="F387" s="25">
         <v>383</v>
       </c>
       <c r="G387">
@@ -48076,10 +48076,10 @@
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="E388" s="30">
-        <v>1</v>
-      </c>
-      <c r="F388" s="27">
+      <c r="E388" s="26">
+        <v>1</v>
+      </c>
+      <c r="F388" s="25">
         <v>384</v>
       </c>
       <c r="G388">
@@ -48166,10 +48166,10 @@
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="E389" s="30">
-        <v>1</v>
-      </c>
-      <c r="F389" s="27">
+      <c r="E389" s="26">
+        <v>1</v>
+      </c>
+      <c r="F389" s="25">
         <v>385</v>
       </c>
       <c r="G389">
@@ -48256,10 +48256,10 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="E390" s="30">
-        <v>1</v>
-      </c>
-      <c r="F390" s="27">
+      <c r="E390" s="26">
+        <v>1</v>
+      </c>
+      <c r="F390" s="25">
         <v>386</v>
       </c>
       <c r="G390">
@@ -48346,10 +48346,10 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="E391" s="30">
-        <v>1</v>
-      </c>
-      <c r="F391" s="27">
+      <c r="E391" s="26">
+        <v>1</v>
+      </c>
+      <c r="F391" s="25">
         <v>387</v>
       </c>
       <c r="G391">
@@ -48436,10 +48436,10 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="E392" s="30">
-        <v>1</v>
-      </c>
-      <c r="F392" s="27">
+      <c r="E392" s="26">
+        <v>1</v>
+      </c>
+      <c r="F392" s="25">
         <v>388</v>
       </c>
       <c r="G392">
@@ -48526,10 +48526,10 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="E393" s="30">
-        <v>1</v>
-      </c>
-      <c r="F393" s="27">
+      <c r="E393" s="26">
+        <v>1</v>
+      </c>
+      <c r="F393" s="25">
         <v>389</v>
       </c>
       <c r="G393">
@@ -48616,10 +48616,10 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="E394" s="30">
-        <v>1</v>
-      </c>
-      <c r="F394" s="27">
+      <c r="E394" s="26">
+        <v>1</v>
+      </c>
+      <c r="F394" s="25">
         <v>390</v>
       </c>
       <c r="G394">
@@ -48706,10 +48706,10 @@
         <f t="shared" ref="D395:D458" si="6">D390+1</f>
         <v>79</v>
       </c>
-      <c r="E395" s="30">
-        <v>1</v>
-      </c>
-      <c r="F395" s="27">
+      <c r="E395" s="26">
+        <v>1</v>
+      </c>
+      <c r="F395" s="25">
         <v>391</v>
       </c>
       <c r="G395">
@@ -48796,10 +48796,10 @@
         <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="E396" s="30">
-        <v>1</v>
-      </c>
-      <c r="F396" s="27">
+      <c r="E396" s="26">
+        <v>1</v>
+      </c>
+      <c r="F396" s="25">
         <v>392</v>
       </c>
       <c r="G396">
@@ -48886,10 +48886,10 @@
         <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="E397" s="30">
-        <v>1</v>
-      </c>
-      <c r="F397" s="27">
+      <c r="E397" s="26">
+        <v>1</v>
+      </c>
+      <c r="F397" s="25">
         <v>393</v>
       </c>
       <c r="G397">
@@ -48976,10 +48976,10 @@
         <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="E398" s="30">
-        <v>1</v>
-      </c>
-      <c r="F398" s="27">
+      <c r="E398" s="26">
+        <v>1</v>
+      </c>
+      <c r="F398" s="25">
         <v>394</v>
       </c>
       <c r="G398">
@@ -49066,10 +49066,10 @@
         <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="E399" s="30">
-        <v>1</v>
-      </c>
-      <c r="F399" s="27">
+      <c r="E399" s="26">
+        <v>1</v>
+      </c>
+      <c r="F399" s="25">
         <v>395</v>
       </c>
       <c r="G399">
@@ -49156,10 +49156,10 @@
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="E400" s="30">
-        <v>1</v>
-      </c>
-      <c r="F400" s="27">
+      <c r="E400" s="26">
+        <v>1</v>
+      </c>
+      <c r="F400" s="25">
         <v>396</v>
       </c>
       <c r="G400">
@@ -49246,10 +49246,10 @@
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="E401" s="30">
-        <v>1</v>
-      </c>
-      <c r="F401" s="27">
+      <c r="E401" s="26">
+        <v>1</v>
+      </c>
+      <c r="F401" s="25">
         <v>397</v>
       </c>
       <c r="G401">
@@ -49336,10 +49336,10 @@
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="E402" s="30">
-        <v>1</v>
-      </c>
-      <c r="F402" s="27">
+      <c r="E402" s="26">
+        <v>1</v>
+      </c>
+      <c r="F402" s="25">
         <v>398</v>
       </c>
       <c r="G402">
@@ -49426,10 +49426,10 @@
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="E403" s="30">
-        <v>1</v>
-      </c>
-      <c r="F403" s="27">
+      <c r="E403" s="26">
+        <v>1</v>
+      </c>
+      <c r="F403" s="25">
         <v>399</v>
       </c>
       <c r="G403">
@@ -49516,10 +49516,10 @@
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="E404" s="30">
-        <v>1</v>
-      </c>
-      <c r="F404" s="27">
+      <c r="E404" s="26">
+        <v>1</v>
+      </c>
+      <c r="F404" s="25">
         <v>400</v>
       </c>
       <c r="G404">
@@ -49606,10 +49606,10 @@
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="E405" s="30">
-        <v>1</v>
-      </c>
-      <c r="F405" s="27">
+      <c r="E405" s="26">
+        <v>1</v>
+      </c>
+      <c r="F405" s="25">
         <v>401</v>
       </c>
       <c r="G405">
@@ -49696,10 +49696,10 @@
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="E406" s="30">
-        <v>1</v>
-      </c>
-      <c r="F406" s="27">
+      <c r="E406" s="26">
+        <v>1</v>
+      </c>
+      <c r="F406" s="25">
         <v>402</v>
       </c>
       <c r="G406">
@@ -49786,10 +49786,10 @@
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="E407" s="30">
-        <v>1</v>
-      </c>
-      <c r="F407" s="27">
+      <c r="E407" s="26">
+        <v>1</v>
+      </c>
+      <c r="F407" s="25">
         <v>403</v>
       </c>
       <c r="G407">
@@ -49876,10 +49876,10 @@
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="E408" s="30">
-        <v>1</v>
-      </c>
-      <c r="F408" s="27">
+      <c r="E408" s="26">
+        <v>1</v>
+      </c>
+      <c r="F408" s="25">
         <v>404</v>
       </c>
       <c r="G408">
@@ -49966,10 +49966,10 @@
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="E409" s="30">
-        <v>1</v>
-      </c>
-      <c r="F409" s="27">
+      <c r="E409" s="26">
+        <v>1</v>
+      </c>
+      <c r="F409" s="25">
         <v>405</v>
       </c>
       <c r="G409">
@@ -50056,10 +50056,10 @@
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="E410" s="30">
-        <v>1</v>
-      </c>
-      <c r="F410" s="27">
+      <c r="E410" s="26">
+        <v>1</v>
+      </c>
+      <c r="F410" s="25">
         <v>406</v>
       </c>
       <c r="G410">
@@ -50146,10 +50146,10 @@
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="E411" s="30">
-        <v>1</v>
-      </c>
-      <c r="F411" s="27">
+      <c r="E411" s="26">
+        <v>1</v>
+      </c>
+      <c r="F411" s="25">
         <v>407</v>
       </c>
       <c r="G411">
@@ -50236,10 +50236,10 @@
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="E412" s="30">
-        <v>1</v>
-      </c>
-      <c r="F412" s="27">
+      <c r="E412" s="26">
+        <v>1</v>
+      </c>
+      <c r="F412" s="25">
         <v>408</v>
       </c>
       <c r="G412">
@@ -50326,10 +50326,10 @@
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="E413" s="30">
-        <v>1</v>
-      </c>
-      <c r="F413" s="27">
+      <c r="E413" s="26">
+        <v>1</v>
+      </c>
+      <c r="F413" s="25">
         <v>409</v>
       </c>
       <c r="G413">
@@ -50416,10 +50416,10 @@
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="E414" s="30">
-        <v>1</v>
-      </c>
-      <c r="F414" s="27">
+      <c r="E414" s="26">
+        <v>1</v>
+      </c>
+      <c r="F414" s="25">
         <v>410</v>
       </c>
       <c r="G414">
@@ -50506,10 +50506,10 @@
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="E415" s="30">
-        <v>1</v>
-      </c>
-      <c r="F415" s="27">
+      <c r="E415" s="26">
+        <v>1</v>
+      </c>
+      <c r="F415" s="25">
         <v>411</v>
       </c>
       <c r="G415">
@@ -50596,10 +50596,10 @@
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="E416" s="30">
-        <v>1</v>
-      </c>
-      <c r="F416" s="27">
+      <c r="E416" s="26">
+        <v>1</v>
+      </c>
+      <c r="F416" s="25">
         <v>412</v>
       </c>
       <c r="G416">
@@ -50686,10 +50686,10 @@
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="E417" s="30">
-        <v>1</v>
-      </c>
-      <c r="F417" s="27">
+      <c r="E417" s="26">
+        <v>1</v>
+      </c>
+      <c r="F417" s="25">
         <v>413</v>
       </c>
       <c r="G417">
@@ -50776,10 +50776,10 @@
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="E418" s="30">
-        <v>1</v>
-      </c>
-      <c r="F418" s="27">
+      <c r="E418" s="26">
+        <v>1</v>
+      </c>
+      <c r="F418" s="25">
         <v>414</v>
       </c>
       <c r="G418">
@@ -50866,10 +50866,10 @@
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="E419" s="30">
-        <v>1</v>
-      </c>
-      <c r="F419" s="27">
+      <c r="E419" s="26">
+        <v>1</v>
+      </c>
+      <c r="F419" s="25">
         <v>415</v>
       </c>
       <c r="G419">
@@ -50956,10 +50956,10 @@
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="E420" s="30">
-        <v>1</v>
-      </c>
-      <c r="F420" s="27">
+      <c r="E420" s="26">
+        <v>1</v>
+      </c>
+      <c r="F420" s="25">
         <v>416</v>
       </c>
       <c r="G420">
@@ -51046,10 +51046,10 @@
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="E421" s="30">
-        <v>1</v>
-      </c>
-      <c r="F421" s="27">
+      <c r="E421" s="26">
+        <v>1</v>
+      </c>
+      <c r="F421" s="25">
         <v>417</v>
       </c>
       <c r="G421">
@@ -51136,10 +51136,10 @@
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="E422" s="30">
-        <v>1</v>
-      </c>
-      <c r="F422" s="27">
+      <c r="E422" s="26">
+        <v>1</v>
+      </c>
+      <c r="F422" s="25">
         <v>418</v>
       </c>
       <c r="G422">
@@ -51226,10 +51226,10 @@
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="E423" s="30">
-        <v>1</v>
-      </c>
-      <c r="F423" s="27">
+      <c r="E423" s="26">
+        <v>1</v>
+      </c>
+      <c r="F423" s="25">
         <v>419</v>
       </c>
       <c r="G423">
@@ -51316,10 +51316,10 @@
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="E424" s="30">
-        <v>1</v>
-      </c>
-      <c r="F424" s="27">
+      <c r="E424" s="26">
+        <v>1</v>
+      </c>
+      <c r="F424" s="25">
         <v>420</v>
       </c>
       <c r="G424">
@@ -51406,10 +51406,10 @@
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="E425" s="30">
-        <v>1</v>
-      </c>
-      <c r="F425" s="27">
+      <c r="E425" s="26">
+        <v>1</v>
+      </c>
+      <c r="F425" s="25">
         <v>421</v>
       </c>
       <c r="G425">
@@ -51496,10 +51496,10 @@
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="E426" s="30">
-        <v>1</v>
-      </c>
-      <c r="F426" s="27">
+      <c r="E426" s="26">
+        <v>1</v>
+      </c>
+      <c r="F426" s="25">
         <v>422</v>
       </c>
       <c r="G426">
@@ -51586,10 +51586,10 @@
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="E427" s="30">
-        <v>1</v>
-      </c>
-      <c r="F427" s="27">
+      <c r="E427" s="26">
+        <v>1</v>
+      </c>
+      <c r="F427" s="25">
         <v>423</v>
       </c>
       <c r="G427">
@@ -51676,10 +51676,10 @@
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="E428" s="30">
-        <v>1</v>
-      </c>
-      <c r="F428" s="27">
+      <c r="E428" s="26">
+        <v>1</v>
+      </c>
+      <c r="F428" s="25">
         <v>424</v>
       </c>
       <c r="G428">
@@ -51766,10 +51766,10 @@
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="E429" s="30">
-        <v>1</v>
-      </c>
-      <c r="F429" s="27">
+      <c r="E429" s="26">
+        <v>1</v>
+      </c>
+      <c r="F429" s="25">
         <v>425</v>
       </c>
       <c r="G429">
@@ -51856,10 +51856,10 @@
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="E430" s="30">
-        <v>1</v>
-      </c>
-      <c r="F430" s="27">
+      <c r="E430" s="26">
+        <v>1</v>
+      </c>
+      <c r="F430" s="25">
         <v>426</v>
       </c>
       <c r="G430">
@@ -51946,10 +51946,10 @@
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="E431" s="30">
-        <v>1</v>
-      </c>
-      <c r="F431" s="27">
+      <c r="E431" s="26">
+        <v>1</v>
+      </c>
+      <c r="F431" s="25">
         <v>427</v>
       </c>
       <c r="G431">
@@ -52036,10 +52036,10 @@
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="E432" s="30">
-        <v>1</v>
-      </c>
-      <c r="F432" s="27">
+      <c r="E432" s="26">
+        <v>1</v>
+      </c>
+      <c r="F432" s="25">
         <v>428</v>
       </c>
       <c r="G432">
@@ -52126,10 +52126,10 @@
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="E433" s="30">
-        <v>1</v>
-      </c>
-      <c r="F433" s="27">
+      <c r="E433" s="26">
+        <v>1</v>
+      </c>
+      <c r="F433" s="25">
         <v>429</v>
       </c>
       <c r="G433">
@@ -52216,10 +52216,10 @@
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="E434" s="30">
-        <v>1</v>
-      </c>
-      <c r="F434" s="27">
+      <c r="E434" s="26">
+        <v>1</v>
+      </c>
+      <c r="F434" s="25">
         <v>430</v>
       </c>
       <c r="G434">
@@ -52306,10 +52306,10 @@
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="E435" s="30">
-        <v>1</v>
-      </c>
-      <c r="F435" s="27">
+      <c r="E435" s="26">
+        <v>1</v>
+      </c>
+      <c r="F435" s="25">
         <v>431</v>
       </c>
       <c r="G435">
@@ -52396,10 +52396,10 @@
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="E436" s="30">
-        <v>1</v>
-      </c>
-      <c r="F436" s="27">
+      <c r="E436" s="26">
+        <v>1</v>
+      </c>
+      <c r="F436" s="25">
         <v>432</v>
       </c>
       <c r="G436">
@@ -52486,10 +52486,10 @@
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="E437" s="30">
-        <v>1</v>
-      </c>
-      <c r="F437" s="27">
+      <c r="E437" s="26">
+        <v>1</v>
+      </c>
+      <c r="F437" s="25">
         <v>433</v>
       </c>
       <c r="G437">
@@ -52576,10 +52576,10 @@
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="E438" s="30">
-        <v>1</v>
-      </c>
-      <c r="F438" s="27">
+      <c r="E438" s="26">
+        <v>1</v>
+      </c>
+      <c r="F438" s="25">
         <v>434</v>
       </c>
       <c r="G438">
@@ -52666,10 +52666,10 @@
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="E439" s="30">
-        <v>1</v>
-      </c>
-      <c r="F439" s="27">
+      <c r="E439" s="26">
+        <v>1</v>
+      </c>
+      <c r="F439" s="25">
         <v>435</v>
       </c>
       <c r="G439">
@@ -52756,10 +52756,10 @@
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="E440" s="30">
-        <v>1</v>
-      </c>
-      <c r="F440" s="27">
+      <c r="E440" s="26">
+        <v>1</v>
+      </c>
+      <c r="F440" s="25">
         <v>436</v>
       </c>
       <c r="G440">
@@ -52846,10 +52846,10 @@
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="E441" s="30">
-        <v>1</v>
-      </c>
-      <c r="F441" s="27">
+      <c r="E441" s="26">
+        <v>1</v>
+      </c>
+      <c r="F441" s="25">
         <v>437</v>
       </c>
       <c r="G441">
@@ -52936,10 +52936,10 @@
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="E442" s="30">
-        <v>1</v>
-      </c>
-      <c r="F442" s="27">
+      <c r="E442" s="26">
+        <v>1</v>
+      </c>
+      <c r="F442" s="25">
         <v>438</v>
       </c>
       <c r="G442">
@@ -53026,10 +53026,10 @@
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="E443" s="30">
-        <v>1</v>
-      </c>
-      <c r="F443" s="27">
+      <c r="E443" s="26">
+        <v>1</v>
+      </c>
+      <c r="F443" s="25">
         <v>439</v>
       </c>
       <c r="G443">
@@ -53116,10 +53116,10 @@
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="E444" s="30">
-        <v>1</v>
-      </c>
-      <c r="F444" s="27">
+      <c r="E444" s="26">
+        <v>1</v>
+      </c>
+      <c r="F444" s="25">
         <v>440</v>
       </c>
       <c r="G444">
@@ -53206,10 +53206,10 @@
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="E445" s="30">
-        <v>1</v>
-      </c>
-      <c r="F445" s="27">
+      <c r="E445" s="26">
+        <v>1</v>
+      </c>
+      <c r="F445" s="25">
         <v>441</v>
       </c>
       <c r="G445">
@@ -53296,10 +53296,10 @@
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="E446" s="30">
-        <v>1</v>
-      </c>
-      <c r="F446" s="27">
+      <c r="E446" s="26">
+        <v>1</v>
+      </c>
+      <c r="F446" s="25">
         <v>442</v>
       </c>
       <c r="G446">
@@ -53386,10 +53386,10 @@
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="E447" s="30">
-        <v>1</v>
-      </c>
-      <c r="F447" s="27">
+      <c r="E447" s="26">
+        <v>1</v>
+      </c>
+      <c r="F447" s="25">
         <v>443</v>
       </c>
       <c r="G447">
@@ -53476,10 +53476,10 @@
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="E448" s="30">
-        <v>1</v>
-      </c>
-      <c r="F448" s="27">
+      <c r="E448" s="26">
+        <v>1</v>
+      </c>
+      <c r="F448" s="25">
         <v>444</v>
       </c>
       <c r="G448">
@@ -53566,10 +53566,10 @@
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="E449" s="30">
-        <v>1</v>
-      </c>
-      <c r="F449" s="27">
+      <c r="E449" s="26">
+        <v>1</v>
+      </c>
+      <c r="F449" s="25">
         <v>445</v>
       </c>
       <c r="G449">
@@ -53656,10 +53656,10 @@
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="E450" s="30">
-        <v>1</v>
-      </c>
-      <c r="F450" s="27">
+      <c r="E450" s="26">
+        <v>1</v>
+      </c>
+      <c r="F450" s="25">
         <v>446</v>
       </c>
       <c r="G450">
@@ -53746,10 +53746,10 @@
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="E451" s="30">
-        <v>1</v>
-      </c>
-      <c r="F451" s="27">
+      <c r="E451" s="26">
+        <v>1</v>
+      </c>
+      <c r="F451" s="25">
         <v>447</v>
       </c>
       <c r="G451">
@@ -53836,10 +53836,10 @@
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="E452" s="30">
-        <v>1</v>
-      </c>
-      <c r="F452" s="27">
+      <c r="E452" s="26">
+        <v>1</v>
+      </c>
+      <c r="F452" s="25">
         <v>448</v>
       </c>
       <c r="G452">
@@ -53926,10 +53926,10 @@
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="E453" s="30">
-        <v>1</v>
-      </c>
-      <c r="F453" s="27">
+      <c r="E453" s="26">
+        <v>1</v>
+      </c>
+      <c r="F453" s="25">
         <v>449</v>
       </c>
       <c r="G453">
@@ -54016,10 +54016,10 @@
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="E454" s="30">
-        <v>1</v>
-      </c>
-      <c r="F454" s="27">
+      <c r="E454" s="26">
+        <v>1</v>
+      </c>
+      <c r="F454" s="25">
         <v>450</v>
       </c>
       <c r="G454">
@@ -54106,10 +54106,10 @@
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="E455" s="30">
-        <v>1</v>
-      </c>
-      <c r="F455" s="27">
+      <c r="E455" s="26">
+        <v>1</v>
+      </c>
+      <c r="F455" s="25">
         <v>451</v>
       </c>
       <c r="G455">
@@ -54196,10 +54196,10 @@
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="E456" s="30">
-        <v>1</v>
-      </c>
-      <c r="F456" s="27">
+      <c r="E456" s="26">
+        <v>1</v>
+      </c>
+      <c r="F456" s="25">
         <v>452</v>
       </c>
       <c r="G456">
@@ -54286,10 +54286,10 @@
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="E457" s="30">
-        <v>1</v>
-      </c>
-      <c r="F457" s="27">
+      <c r="E457" s="26">
+        <v>1</v>
+      </c>
+      <c r="F457" s="25">
         <v>453</v>
       </c>
       <c r="G457">
@@ -54376,10 +54376,10 @@
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="E458" s="30">
-        <v>1</v>
-      </c>
-      <c r="F458" s="27">
+      <c r="E458" s="26">
+        <v>1</v>
+      </c>
+      <c r="F458" s="25">
         <v>454</v>
       </c>
       <c r="G458">
@@ -54466,10 +54466,10 @@
         <f t="shared" ref="D459:D504" si="7">D454+1</f>
         <v>91</v>
       </c>
-      <c r="E459" s="30">
-        <v>1</v>
-      </c>
-      <c r="F459" s="27">
+      <c r="E459" s="26">
+        <v>1</v>
+      </c>
+      <c r="F459" s="25">
         <v>455</v>
       </c>
       <c r="G459">
@@ -54556,10 +54556,10 @@
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="E460" s="30">
-        <v>1</v>
-      </c>
-      <c r="F460" s="27">
+      <c r="E460" s="26">
+        <v>1</v>
+      </c>
+      <c r="F460" s="25">
         <v>456</v>
       </c>
       <c r="G460">
@@ -54646,10 +54646,10 @@
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="E461" s="30">
-        <v>1</v>
-      </c>
-      <c r="F461" s="27">
+      <c r="E461" s="26">
+        <v>1</v>
+      </c>
+      <c r="F461" s="25">
         <v>457</v>
       </c>
       <c r="G461">
@@ -54736,10 +54736,10 @@
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="E462" s="30">
-        <v>1</v>
-      </c>
-      <c r="F462" s="27">
+      <c r="E462" s="26">
+        <v>1</v>
+      </c>
+      <c r="F462" s="25">
         <v>458</v>
       </c>
       <c r="G462">
@@ -54826,10 +54826,10 @@
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="E463" s="30">
-        <v>1</v>
-      </c>
-      <c r="F463" s="27">
+      <c r="E463" s="26">
+        <v>1</v>
+      </c>
+      <c r="F463" s="25">
         <v>459</v>
       </c>
       <c r="G463">
@@ -54916,10 +54916,10 @@
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="E464" s="30">
-        <v>1</v>
-      </c>
-      <c r="F464" s="27">
+      <c r="E464" s="26">
+        <v>1</v>
+      </c>
+      <c r="F464" s="25">
         <v>460</v>
       </c>
       <c r="G464">
@@ -55006,10 +55006,10 @@
         <f t="shared" si="7"/>
         <v>93</v>
       </c>
-      <c r="E465" s="30">
-        <v>1</v>
-      </c>
-      <c r="F465" s="27">
+      <c r="E465" s="26">
+        <v>1</v>
+      </c>
+      <c r="F465" s="25">
         <v>461</v>
       </c>
       <c r="G465">
@@ -55096,10 +55096,10 @@
         <f t="shared" si="7"/>
         <v>93</v>
       </c>
-      <c r="E466" s="30">
-        <v>1</v>
-      </c>
-      <c r="F466" s="27">
+      <c r="E466" s="26">
+        <v>1</v>
+      </c>
+      <c r="F466" s="25">
         <v>462</v>
       </c>
       <c r="G466">
@@ -55186,10 +55186,10 @@
         <f t="shared" si="7"/>
         <v>93</v>
       </c>
-      <c r="E467" s="30">
-        <v>1</v>
-      </c>
-      <c r="F467" s="27">
+      <c r="E467" s="26">
+        <v>1</v>
+      </c>
+      <c r="F467" s="25">
         <v>463</v>
       </c>
       <c r="G467">
@@ -55276,10 +55276,10 @@
         <f t="shared" si="7"/>
         <v>93</v>
       </c>
-      <c r="E468" s="30">
-        <v>1</v>
-      </c>
-      <c r="F468" s="27">
+      <c r="E468" s="26">
+        <v>1</v>
+      </c>
+      <c r="F468" s="25">
         <v>464</v>
       </c>
       <c r="G468">
@@ -55366,10 +55366,10 @@
         <f t="shared" si="7"/>
         <v>93</v>
       </c>
-      <c r="E469" s="30">
-        <v>1</v>
-      </c>
-      <c r="F469" s="27">
+      <c r="E469" s="26">
+        <v>1</v>
+      </c>
+      <c r="F469" s="25">
         <v>465</v>
       </c>
       <c r="G469">
@@ -55456,10 +55456,10 @@
         <f t="shared" si="7"/>
         <v>94</v>
       </c>
-      <c r="E470" s="30">
-        <v>1</v>
-      </c>
-      <c r="F470" s="27">
+      <c r="E470" s="26">
+        <v>1</v>
+      </c>
+      <c r="F470" s="25">
         <v>466</v>
       </c>
       <c r="G470">
@@ -55546,10 +55546,10 @@
         <f t="shared" si="7"/>
         <v>94</v>
       </c>
-      <c r="E471" s="30">
-        <v>1</v>
-      </c>
-      <c r="F471" s="27">
+      <c r="E471" s="26">
+        <v>1</v>
+      </c>
+      <c r="F471" s="25">
         <v>467</v>
       </c>
       <c r="G471">
@@ -55636,10 +55636,10 @@
         <f t="shared" si="7"/>
         <v>94</v>
       </c>
-      <c r="E472" s="30">
-        <v>1</v>
-      </c>
-      <c r="F472" s="27">
+      <c r="E472" s="26">
+        <v>1</v>
+      </c>
+      <c r="F472" s="25">
         <v>468</v>
       </c>
       <c r="G472">
@@ -55726,10 +55726,10 @@
         <f t="shared" si="7"/>
         <v>94</v>
       </c>
-      <c r="E473" s="30">
-        <v>1</v>
-      </c>
-      <c r="F473" s="27">
+      <c r="E473" s="26">
+        <v>1</v>
+      </c>
+      <c r="F473" s="25">
         <v>469</v>
       </c>
       <c r="G473">
@@ -55816,10 +55816,10 @@
         <f t="shared" si="7"/>
         <v>94</v>
       </c>
-      <c r="E474" s="30">
-        <v>1</v>
-      </c>
-      <c r="F474" s="27">
+      <c r="E474" s="26">
+        <v>1</v>
+      </c>
+      <c r="F474" s="25">
         <v>470</v>
       </c>
       <c r="G474">
@@ -55906,10 +55906,10 @@
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="E475" s="30">
-        <v>1</v>
-      </c>
-      <c r="F475" s="27">
+      <c r="E475" s="26">
+        <v>1</v>
+      </c>
+      <c r="F475" s="25">
         <v>471</v>
       </c>
       <c r="G475">
@@ -55996,10 +55996,10 @@
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="E476" s="30">
-        <v>1</v>
-      </c>
-      <c r="F476" s="27">
+      <c r="E476" s="26">
+        <v>1</v>
+      </c>
+      <c r="F476" s="25">
         <v>472</v>
       </c>
       <c r="G476">
@@ -56086,10 +56086,10 @@
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="E477" s="30">
-        <v>1</v>
-      </c>
-      <c r="F477" s="27">
+      <c r="E477" s="26">
+        <v>1</v>
+      </c>
+      <c r="F477" s="25">
         <v>473</v>
       </c>
       <c r="G477">
@@ -56176,10 +56176,10 @@
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="E478" s="30">
-        <v>1</v>
-      </c>
-      <c r="F478" s="27">
+      <c r="E478" s="26">
+        <v>1</v>
+      </c>
+      <c r="F478" s="25">
         <v>474</v>
       </c>
       <c r="G478">
@@ -56266,10 +56266,10 @@
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="E479" s="30">
-        <v>1</v>
-      </c>
-      <c r="F479" s="27">
+      <c r="E479" s="26">
+        <v>1</v>
+      </c>
+      <c r="F479" s="25">
         <v>475</v>
       </c>
       <c r="G479">
@@ -56356,10 +56356,10 @@
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="E480" s="30">
-        <v>1</v>
-      </c>
-      <c r="F480" s="27">
+      <c r="E480" s="26">
+        <v>1</v>
+      </c>
+      <c r="F480" s="25">
         <v>476</v>
       </c>
       <c r="G480">
@@ -56446,10 +56446,10 @@
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="E481" s="30">
-        <v>1</v>
-      </c>
-      <c r="F481" s="27">
+      <c r="E481" s="26">
+        <v>1</v>
+      </c>
+      <c r="F481" s="25">
         <v>477</v>
       </c>
       <c r="G481">
@@ -56536,10 +56536,10 @@
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="E482" s="30">
-        <v>1</v>
-      </c>
-      <c r="F482" s="27">
+      <c r="E482" s="26">
+        <v>1</v>
+      </c>
+      <c r="F482" s="25">
         <v>478</v>
       </c>
       <c r="G482">
@@ -56626,10 +56626,10 @@
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="E483" s="30">
-        <v>1</v>
-      </c>
-      <c r="F483" s="27">
+      <c r="E483" s="26">
+        <v>1</v>
+      </c>
+      <c r="F483" s="25">
         <v>479</v>
       </c>
       <c r="G483">
@@ -56716,10 +56716,10 @@
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="E484" s="30">
-        <v>1</v>
-      </c>
-      <c r="F484" s="27">
+      <c r="E484" s="26">
+        <v>1</v>
+      </c>
+      <c r="F484" s="25">
         <v>480</v>
       </c>
       <c r="G484">
@@ -56806,10 +56806,10 @@
         <f t="shared" si="7"/>
         <v>97</v>
       </c>
-      <c r="E485" s="30">
-        <v>1</v>
-      </c>
-      <c r="F485" s="27">
+      <c r="E485" s="26">
+        <v>1</v>
+      </c>
+      <c r="F485" s="25">
         <v>481</v>
       </c>
       <c r="G485">
@@ -56896,10 +56896,10 @@
         <f t="shared" si="7"/>
         <v>97</v>
       </c>
-      <c r="E486" s="30">
-        <v>1</v>
-      </c>
-      <c r="F486" s="27">
+      <c r="E486" s="26">
+        <v>1</v>
+      </c>
+      <c r="F486" s="25">
         <v>482</v>
       </c>
       <c r="G486">
@@ -56986,10 +56986,10 @@
         <f t="shared" si="7"/>
         <v>97</v>
       </c>
-      <c r="E487" s="30">
-        <v>1</v>
-      </c>
-      <c r="F487" s="27">
+      <c r="E487" s="26">
+        <v>1</v>
+      </c>
+      <c r="F487" s="25">
         <v>483</v>
       </c>
       <c r="G487">
@@ -57076,10 +57076,10 @@
         <f t="shared" si="7"/>
         <v>97</v>
       </c>
-      <c r="E488" s="30">
-        <v>1</v>
-      </c>
-      <c r="F488" s="27">
+      <c r="E488" s="26">
+        <v>1</v>
+      </c>
+      <c r="F488" s="25">
         <v>484</v>
       </c>
       <c r="G488">
@@ -57166,10 +57166,10 @@
         <f t="shared" si="7"/>
         <v>97</v>
       </c>
-      <c r="E489" s="30">
-        <v>1</v>
-      </c>
-      <c r="F489" s="27">
+      <c r="E489" s="26">
+        <v>1</v>
+      </c>
+      <c r="F489" s="25">
         <v>485</v>
       </c>
       <c r="G489">
@@ -57256,10 +57256,10 @@
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
-      <c r="E490" s="30">
-        <v>1</v>
-      </c>
-      <c r="F490" s="27">
+      <c r="E490" s="26">
+        <v>1</v>
+      </c>
+      <c r="F490" s="25">
         <v>486</v>
       </c>
       <c r="G490">
@@ -57346,10 +57346,10 @@
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
-      <c r="E491" s="30">
-        <v>1</v>
-      </c>
-      <c r="F491" s="27">
+      <c r="E491" s="26">
+        <v>1</v>
+      </c>
+      <c r="F491" s="25">
         <v>487</v>
       </c>
       <c r="G491">
@@ -57436,10 +57436,10 @@
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
-      <c r="E492" s="30">
-        <v>1</v>
-      </c>
-      <c r="F492" s="27">
+      <c r="E492" s="26">
+        <v>1</v>
+      </c>
+      <c r="F492" s="25">
         <v>488</v>
       </c>
       <c r="G492">
@@ -57526,10 +57526,10 @@
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
-      <c r="E493" s="30">
-        <v>1</v>
-      </c>
-      <c r="F493" s="27">
+      <c r="E493" s="26">
+        <v>1</v>
+      </c>
+      <c r="F493" s="25">
         <v>489</v>
       </c>
       <c r="G493">
@@ -57616,10 +57616,10 @@
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
-      <c r="E494" s="30">
-        <v>1</v>
-      </c>
-      <c r="F494" s="27">
+      <c r="E494" s="26">
+        <v>1</v>
+      </c>
+      <c r="F494" s="25">
         <v>490</v>
       </c>
       <c r="G494">
@@ -57706,10 +57706,10 @@
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="E495" s="30">
-        <v>1</v>
-      </c>
-      <c r="F495" s="27">
+      <c r="E495" s="26">
+        <v>1</v>
+      </c>
+      <c r="F495" s="25">
         <v>491</v>
       </c>
       <c r="G495">
@@ -57796,10 +57796,10 @@
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="E496" s="30">
-        <v>1</v>
-      </c>
-      <c r="F496" s="27">
+      <c r="E496" s="26">
+        <v>1</v>
+      </c>
+      <c r="F496" s="25">
         <v>492</v>
       </c>
       <c r="G496">
@@ -57886,10 +57886,10 @@
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="E497" s="30">
-        <v>1</v>
-      </c>
-      <c r="F497" s="27">
+      <c r="E497" s="26">
+        <v>1</v>
+      </c>
+      <c r="F497" s="25">
         <v>493</v>
       </c>
       <c r="G497">
@@ -57976,10 +57976,10 @@
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="E498" s="30">
-        <v>1</v>
-      </c>
-      <c r="F498" s="27">
+      <c r="E498" s="26">
+        <v>1</v>
+      </c>
+      <c r="F498" s="25">
         <v>494</v>
       </c>
       <c r="G498">
@@ -58066,10 +58066,10 @@
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="E499" s="30">
-        <v>1</v>
-      </c>
-      <c r="F499" s="27">
+      <c r="E499" s="26">
+        <v>1</v>
+      </c>
+      <c r="F499" s="25">
         <v>495</v>
       </c>
       <c r="G499">
@@ -58156,10 +58156,10 @@
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="E500" s="30">
-        <v>1</v>
-      </c>
-      <c r="F500" s="27">
+      <c r="E500" s="26">
+        <v>1</v>
+      </c>
+      <c r="F500" s="25">
         <v>496</v>
       </c>
       <c r="G500">
@@ -58246,10 +58246,10 @@
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="E501" s="30">
-        <v>1</v>
-      </c>
-      <c r="F501" s="27">
+      <c r="E501" s="26">
+        <v>1</v>
+      </c>
+      <c r="F501" s="25">
         <v>497</v>
       </c>
       <c r="G501">
@@ -58336,10 +58336,10 @@
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="E502" s="30">
-        <v>1</v>
-      </c>
-      <c r="F502" s="27">
+      <c r="E502" s="26">
+        <v>1</v>
+      </c>
+      <c r="F502" s="25">
         <v>498</v>
       </c>
       <c r="G502">
@@ -58426,10 +58426,10 @@
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="E503" s="30">
-        <v>1</v>
-      </c>
-      <c r="F503" s="27">
+      <c r="E503" s="26">
+        <v>1</v>
+      </c>
+      <c r="F503" s="25">
         <v>499</v>
       </c>
       <c r="G503">
@@ -58516,10 +58516,10 @@
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="E504" s="30">
-        <v>1</v>
-      </c>
-      <c r="F504" s="27">
+      <c r="E504" s="26">
+        <v>1</v>
+      </c>
+      <c r="F504" s="25">
         <v>500</v>
       </c>
       <c r="G504">
